--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -943,10 +943,6 @@
   </si>
   <si>
     <t>1.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一版</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1053,596 +1049,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">功能清單
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第一層為模組別，被選取的模組別顯示顏色，及其他未被選取的模組別顯示顏色，請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">規範。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>被選取的模組展開並顯示模組內的功能清單，功能清單以樹狀呈現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，最多可顯示三層樹狀結構。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>功能清單若有下層子節點，則該功能清單無法繫結</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">連結。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">使用者資訊、系統時間及登出
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">包含：員編、姓名、部門、職稱、系統時間，及登出按鈕。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">系統跑馬燈：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>可顯示系統公告等系統資訊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公布欄訊息來源為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>模組</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">巡覽列：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">頁籤
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>包含首頁頁籤最多可顯示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">個頁籤。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最左方固定顯示首頁頁籤，首頁頁籤顯示歡迎圖檔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(future</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>連結公佈欄，公布欄資料來源為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>EMS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，且無法關閉。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>操作中的頁籤顯示顏色，及其他頁籤顯示顏色，請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">規範。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>各頁籤依</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>APF DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數檔所設定的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Session timeout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">時間，逾時後頁籤閃爍提醒。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>點選頁籤中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>按鈕則可關閉頁籤。
-5.6頁籤關閉時，須告知各模組已關閉該功能以利清除該模組的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>session(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>各模組須提供</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>API)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">主要內容：顯示各功能清單的操作頁面。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>異常警示、待辦事項區塊：顯示系統異常警示、及個人待辦事項。</t>
-    </r>
+    <t>初版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 功能清單
+1.1 第一層為模組別，被選取的模組別顯示顏色，及其他未被選取的模組別顯示顏色，請參考UI規範。
+1.2 被選取的模組展開並顯示模組內的功能清單，功能清單以樹狀呈現(參考UI規範)，最多可顯示三層樹狀結構。
+1.3 功能清單若有下層子節點，則該功能清單無法繫結URL連結。
+2 使用者資訊、系統時間及登出
+2.1 包含：員編、姓名、部門、職稱、系統時間，及登出按鈕。
+3 系統跑馬燈：
+3.1 可顯示系統公告等系統資訊(公布欄訊息來源為EMS模組)。
+4 巡覽列：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
+5 頁籤
+5.1 包含首頁頁籤最多可顯示6個頁籤。
+5.2 最左方固定顯示首頁頁籤，首頁頁籤顯示歡迎圖檔(future連結公佈欄，公布欄資料來源為EMS)，且無法關閉。
+5.3 操作中的頁籤顯示顏色，及其他頁籤顯示顏色，請參考UI規範。
+5.4 各頁籤依APF DB參數檔所設定的Session timeout時間，逾時後頁籤閃爍提醒。
+5.5 點選頁籤中的x按鈕則可關閉頁籤。
+5.6頁籤關閉時，須告知各模組已關閉該功能以利清除該模組的session(各模組須提供API)。
+6 主要內容：顯示各功能清單的操作頁面。
+7 異常警示、待辦事項區塊：顯示系統異常警示、及個人待辦事項。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1653,7 +1081,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1740,18 +1168,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -2217,24 +1633,151 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2244,22 +1787,49 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2268,80 +1838,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2363,15 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2380,12 +1875,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2460,6 +1964,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2481,97 +1988,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2615,7 +2031,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9938712" cy="480098"/>
+          <a:ext cx="9953625" cy="495300"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3108,13 +2524,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>8467</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>680412</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>9622</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3159,14 +2575,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>14146</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>670887</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>148073</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5711,276 +5127,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L55"/>
+  <dimension ref="A4:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="198"/>
-    <col min="2" max="2" width="17.75" style="198" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="198" customWidth="1"/>
-    <col min="4" max="4" width="15" style="198" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="198"/>
+    <col min="1" max="1" width="9" style="83"/>
+    <col min="2" max="2" width="17.75" style="83" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="83" customWidth="1"/>
+    <col min="4" max="4" width="15" style="83" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" s="172" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-    </row>
-    <row r="5" spans="1:12" s="176" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="173" t="s">
+    <row r="4" spans="1:12" s="80" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="175"/>
-    </row>
-    <row r="6" spans="1:12" s="176" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="177" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
+    </row>
+    <row r="6" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="179"/>
-    </row>
-    <row r="7" spans="1:12" s="176" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="180" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="184"/>
-    </row>
-    <row r="8" spans="1:12" s="190" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="185" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+    </row>
+    <row r="8" spans="1:12" s="82" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="189"/>
-    </row>
-    <row r="9" spans="1:12" s="176" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="191" t="s">
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="182" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="184"/>
-    </row>
-    <row r="10" spans="1:12" s="190" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A10" s="185" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:12" s="82" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A10" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="187" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="189"/>
-    </row>
-    <row r="11" spans="1:12" s="176" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="180" t="s">
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
+    </row>
+    <row r="11" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="193" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="184"/>
-    </row>
-    <row r="12" spans="1:12" s="190" customFormat="1">
-      <c r="A12" s="185" t="s">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+    </row>
+    <row r="12" spans="1:12" s="82" customFormat="1">
+      <c r="A12" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="189"/>
-    </row>
-    <row r="13" spans="1:12" s="176" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="99"/>
+    </row>
+    <row r="13" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="193" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="184"/>
-    </row>
-    <row r="14" spans="1:12" s="190" customFormat="1">
-      <c r="A14" s="185" t="s">
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
+    </row>
+    <row r="14" spans="1:12" s="82" customFormat="1">
+      <c r="A14" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="187" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="189"/>
-    </row>
-    <row r="15" spans="1:12" s="176" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="173" t="s">
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="99"/>
+    </row>
+    <row r="15" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="194"/>
-    </row>
-    <row r="16" spans="1:12" s="176" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A16" s="195" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="197"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="1:12" s="81" customFormat="1" ht="186" customHeight="1">
+      <c r="A16" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="101"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="194"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="173" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="187"/>
-      <c r="C55" s="187"/>
-      <c r="D55" s="187"/>
-      <c r="E55" s="187"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="187"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-      <c r="J55" s="187"/>
-      <c r="K55" s="187"/>
-      <c r="L55" s="194"/>
+      <c r="A17" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A48:L48"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -6001,7 +5418,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6012,7 +5428,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -6023,8 +5439,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6042,14 +5458,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>55</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6068,8 +5484,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6143,220 +5559,220 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:17" s="25" customFormat="1" ht="14.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="1:17" s="27" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:17" s="27" customFormat="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:17" s="27" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="A10" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" ht="259.5" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
+      <c r="A12" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="A13" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
     </row>
     <row r="17" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A17" s="168"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="170"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:12" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="65" t="s">
@@ -6371,14 +5787,14 @@
       <c r="D21" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
     </row>
@@ -6389,24 +5805,24 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="149"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
@@ -6415,112 +5831,112 @@
         <v>1</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="59"/>
-      <c r="E24" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
+      <c r="E24" s="142" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
     </row>
     <row r="26" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="119" t="s">
+      <c r="C26" s="138"/>
+      <c r="D26" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="121"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="123"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
     </row>
     <row r="30" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="123"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
     </row>
     <row r="31" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="5" t="s">
@@ -6543,14 +5959,14 @@
       <c r="B33" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="79"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="9">
@@ -6559,20 +5975,17 @@
       <c r="B34" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A23:J23"/>
     <mergeCell ref="C34:J34"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="B28:C28"/>
@@ -6583,15 +5996,12 @@
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:J31"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A14:J14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="A19:J19"/>
@@ -6600,6 +6010,12 @@
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
@@ -6728,17 +6144,17 @@
       <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="160"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
@@ -6816,17 +6232,17 @@
       <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="133"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="160"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
@@ -6914,17 +6330,17 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="133"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="160"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
@@ -7023,17 +6439,17 @@
       <c r="J19" s="74"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="73" t="s">
@@ -7308,17 +6724,17 @@
       <c r="I30" s="55"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="130" t="s">
+      <c r="A32" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="73" t="s">
@@ -7479,56 +6895,56 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="177"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
       <c r="I7" s="38" t="s">
         <v>40</v>
       </c>
@@ -7537,17 +6953,17 @@
       <c r="A8" s="39">
         <v>1</v>
       </c>
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
       <c r="I8" s="41" t="s">
         <v>44</v>
       </c>
@@ -7556,17 +6972,17 @@
       <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
       <c r="E9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
       <c r="I9" s="41" t="s">
         <v>44</v>
       </c>
@@ -7575,166 +6991,166 @@
       <c r="A10" s="39">
         <v>3</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
       <c r="E10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
       <c r="I10" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="183"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="39">
         <v>1</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="80" t="s">
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="39">
         <v>2</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="80" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="135">
+      <c r="A14" s="164">
         <v>3</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="154" t="s">
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="135"/>
-      <c r="B15" s="134" t="s">
+      <c r="A15" s="164"/>
+      <c r="B15" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="42" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="160"/>
+      <c r="H15" s="190"/>
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="135"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="164"/>
+      <c r="B16" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="39"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="117"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="135"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="79"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="126"/>
       <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="135"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="94"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="146"/>
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="135"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
+      <c r="A19" s="164"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="94"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="146"/>
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="135"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="135" t="s">
+      <c r="A20" s="164"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7789,7 +7205,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7868,7 +7284,7 @@
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="78" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7894,7 +7310,7 @@
         <v>157</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D6" s="62">
         <v>41550</v>
@@ -7910,43 +7326,43 @@
     </row>
     <row r="7" spans="1:19" s="20" customFormat="1">
       <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="17"/>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:19" s="20" customFormat="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="17"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:19" s="20" customFormat="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="17"/>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:19" s="20" customFormat="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:19" s="20" customFormat="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:19" s="20" customFormat="1">
       <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:19" s="20" customFormat="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="17"/>
       <c r="D13" s="16"/>
     </row>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,35 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="功能簡述" sheetId="32" r:id="rId1"/>
-    <sheet name="APF0001MM1" sheetId="7" r:id="rId2"/>
-    <sheet name="panEO0107MM1" sheetId="14" r:id="rId3"/>
-    <sheet name="method-bsLoadEO0107MM1Qry" sheetId="15" r:id="rId4"/>
-    <sheet name="版本控管" sheetId="16" r:id="rId5"/>
+    <sheet name="總表" sheetId="33" r:id="rId1"/>
+    <sheet name="版本控管" sheetId="16" r:id="rId2"/>
+    <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
+    <sheet name="APF0001MM1" sheetId="7" r:id="rId4"/>
+    <sheet name="panAPF0001MM1" sheetId="14" r:id="rId5"/>
+    <sheet name="method-bsLoadAPF0001MM1Qry" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">APF0001MM1!$A$1:$J$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">panEO0107MM1!$A$1:$I$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">APF0001MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'method-bsLoadEO0107MM1Qry'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">panEO0107MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">版本控管!$1:$4</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">APF0001MM1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">APF0001MM1!$A$1:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">panAPF0001MM1!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">APF0001MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'method-bsLoadAPF0001MM1Qry'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">panAPF0001MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">APF0001MM1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
   <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -67,19 +68,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>print_date(訂單日期)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>託運單號碼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -168,14 +157,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>訂單日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>方法名稱</t>
@@ -402,14 +383,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>畫面代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>錯誤代碼</t>
   </si>
   <si>
@@ -469,14 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtBILL_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>查無資料</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -489,70 +454,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>固定為EO0107MM1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶名稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>業績歸屬員編</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>溫層</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>距離</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>規格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>代收金額</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件區號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>到貨所</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtCUST_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtTEMP_TYPE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtDST_TYPE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtSPEC_TYPE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtGOODS_PRICE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtREC_ZIP_CODE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtDEP_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>bsLoadEO0107MM1Qry</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -561,43 +462,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>txtPRINT_DATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_CUST_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_CUST_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup window帶出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單筆數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtNUM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_EMP_ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -651,30 +520,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cust</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panEO0107MM1_Query</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>功能 Use Case</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -743,139 +588,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>panEO0107MM1_Grid1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_order</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>print_date</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Global 參數</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>即時count筆數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panEO0107MM1_Grid2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_order</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(12)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dst_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>spec_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec_area_code</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlv_center</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panEO0107MM1_Undo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次不轉入托運單號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_BILL_ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1053,25 +770,190 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1 功能清單
+    <t>用途分類</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>method-bsLoadAPF0001MM1Qry</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0001_登入主畫面與框架顯示 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入主畫面與框架顯示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Menu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Marquee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Path</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Tab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>panAPF0001MM1_Msg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 panAPF0001MM1_Menu(功能清單)
 1.1 第一層為模組別，被選取的模組別顯示顏色，及其他未被選取的模組別顯示顏色，請參考UI規範。
 1.2 被選取的模組展開並顯示模組內的功能清單，功能清單以樹狀呈現(參考UI規範)，最多可顯示三層樹狀結構。
 1.3 功能清單若有下層子節點，則該功能清單無法繫結URL連結。
-2 使用者資訊、系統時間及登出
+2 panAPF0001MM1_Status(使用者資訊、系統時間及登出)
 2.1 包含：員編、姓名、部門、職稱、系統時間，及登出按鈕。
-3 系統跑馬燈：
+3 panAPF0001MM1_Marquee(系統跑馬燈)
 3.1 可顯示系統公告等系統資訊(公布欄訊息來源為EMS模組)。
-4 巡覽列：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
-5 頁籤
+4 panAPF0001MM1_Path(巡覽列)：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
+5 panAPF0001MM1_Tab(頁籤)
 5.1 包含首頁頁籤最多可顯示6個頁籤。
 5.2 最左方固定顯示首頁頁籤，首頁頁籤顯示歡迎圖檔(future連結公佈欄，公布欄資料來源為EMS)，且無法關閉。
 5.3 操作中的頁籤顯示顏色，及其他頁籤顯示顏色，請參考UI規範。
 5.4 各頁籤依APF DB參數檔所設定的Session timeout時間，逾時後頁籤閃爍提醒。
 5.5 點選頁籤中的x按鈕則可關閉頁籤。
 5.6頁籤關閉時，須告知各模組已關閉該功能以利清除該模組的session(各模組須提供API)。
-6 主要內容：顯示各功能清單的操作頁面。
-7 異常警示、待辦事項區塊：顯示系統異常警示、及個人待辦事項。</t>
+6 panAPF0001MM1_Content(主要內容)：顯示各功能清單的操作頁面。
+7 panAPF0001MM1_Msg(異常警示、待辦事項區塊)：顯示系統異常警示、及個人待辦事項。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員編</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtEMP_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtEMP_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡覽列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1081,7 +963,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1172,8 +1054,95 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="63"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,8 +1179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1421,12 +1396,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1579,9 +1641,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1649,6 +1708,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1658,45 +1759,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1712,7 +1780,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,9 +1861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,12 +1900,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1806,66 +1928,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,123 +1936,167 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2007,6 +2113,514 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12502" name="群組 8"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9544050" cy="438150"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9697" y="123825"/>
+            <a:ext cx="882346" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="765994" y="123825"/>
+            <a:ext cx="2346458" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2996098" y="123825"/>
+            <a:ext cx="3063970" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0001 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>登入主畫面與框架顯示</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5740097" y="123825"/>
+            <a:ext cx="2414331" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8008986" y="123825"/>
+            <a:ext cx="901738" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8901028" y="123825"/>
+            <a:ext cx="814473" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12509" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2528,9 +3142,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2624,7 +3238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3160,31 +3774,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>974725</xdr:colOff>
+      <xdr:colOff>15121</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1897380</xdr:rowOff>
+      <xdr:rowOff>1905935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="圖片 20" descr="速達訂案中20130904版-標記.jpg"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="857250"/>
-          <a:ext cx="6480175" cy="4050030"/>
+          <a:off x="228601" y="895350"/>
+          <a:ext cx="5406270" cy="4020485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3196,7 +3818,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3727,7 +4349,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4247,514 +4869,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2524125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12502" name="群組 8"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9544050" cy="438150"/>
-          <a:chOff x="1" y="66675"/>
-          <a:chExt cx="9715500" cy="438150"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 25"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9697" y="123825"/>
-            <a:ext cx="882346" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>大項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Online</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>作業</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 26"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="765994" y="123825"/>
-            <a:ext cx="2346458" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>中項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>APF </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>使用者管理</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 27"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2996098" y="123825"/>
-            <a:ext cx="3063970" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>細項</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0001 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>登入主畫面與框架顯示</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 28"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5740097" y="123825"/>
-            <a:ext cx="2414331" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>標題</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>功能簡述</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 29"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8008986" y="123825"/>
-            <a:ext cx="901738" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作人</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>陳慕霖</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體"/>
-              <a:ea typeface="標楷體"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 30"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8901028" y="123825"/>
-            <a:ext cx="814473" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>製作日</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>20131003</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12509" name="Line 31"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm flipV="1">
-            <a:off x="1" y="66675"/>
-            <a:ext cx="9715500" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150" cmpd="thinThick">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -5126,23 +5240,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="29.375" style="200" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="200" customWidth="1"/>
+    <col min="3" max="3" width="59.125" style="200" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="200" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="200"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="201" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="202" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="202" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="203" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
+      <c r="A3" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="205" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="205" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="206" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="205" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="205"/>
+      <c r="D4" s="206" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="207"/>
+      <c r="B5" s="205" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="205"/>
+      <c r="D5" s="206" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="207"/>
+      <c r="B6" s="205" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="205"/>
+      <c r="D6" s="206" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="207"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="206"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1">
+      <c r="A8" s="207"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="206"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1">
+      <c r="A9" s="207"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="206"/>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1">
+      <c r="A10" s="207"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="206"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="A11" s="207"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="206"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1">
+      <c r="A12" s="207"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="206"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" thickBot="1">
+      <c r="A13" s="208"/>
+      <c r="B13" s="209"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="210"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickTop="1">
+      <c r="D14" s="211"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="211"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="211"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="211"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="211"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="212"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="211"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="211"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="211"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D4:D5" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D4" location="APF0001MM1!A1" display="View"/>
+    <hyperlink ref="D5" location="panAPF0001MM1!A1" display="View"/>
+    <hyperlink ref="D6" location="'method-bsLoadAPF0001MM1Qry'!A1" display="View"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="22" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="12.75">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="12.75">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="12.75">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="12.75">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" s="20" customFormat="1" ht="15.75">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="61">
+        <v>41550</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" s="20" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" s="20" customFormat="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" s="20" customFormat="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" s="20" customFormat="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" s="20" customFormat="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" s="20" customFormat="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" s="20" customFormat="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="23"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="23"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="23"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="23"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="23"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="23"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="23"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="23"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="23"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="23"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
+詳細設計書</oddHeader>
+    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="83"/>
-    <col min="2" max="2" width="17.75" style="83" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="83" customWidth="1"/>
-    <col min="4" max="4" width="15" style="83" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="83"/>
+    <col min="1" max="1" width="9" style="82"/>
+    <col min="2" max="2" width="17.75" style="82" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="15" style="82" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" s="80" customFormat="1" ht="6.75" customHeight="1">
+    <row r="4" spans="1:12" s="79" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -5156,252 +5683,246 @@
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
-    </row>
-    <row r="6" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="104"/>
-    </row>
-    <row r="7" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
-    </row>
-    <row r="8" spans="1:12" s="82" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-    </row>
-    <row r="9" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-    </row>
-    <row r="10" spans="1:12" s="82" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
-    </row>
-    <row r="11" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-    </row>
-    <row r="12" spans="1:12" s="82" customFormat="1">
-      <c r="A12" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99"/>
-    </row>
-    <row r="13" spans="1:12" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
-    </row>
-    <row r="14" spans="1:12" s="82" customFormat="1">
-      <c r="A14" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="99"/>
-    </row>
-    <row r="15" spans="1:12" s="81" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:12" s="81" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="101"/>
+    <row r="5" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
+    </row>
+    <row r="6" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
+    </row>
+    <row r="7" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" s="81" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+    </row>
+    <row r="9" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
+    </row>
+    <row r="10" spans="1:12" s="81" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A10" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+    </row>
+    <row r="11" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
+    </row>
+    <row r="12" spans="1:12" s="81" customFormat="1">
+      <c r="A12" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+    </row>
+    <row r="13" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+    </row>
+    <row r="14" spans="1:12" s="81" customFormat="1">
+      <c r="A14" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+    </row>
+    <row r="15" spans="1:12" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:12" s="80" customFormat="1" ht="186" customHeight="1">
+      <c r="A16" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="103"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="A17" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="89"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="91"/>
+      <c r="A48" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A17:L17"/>
@@ -5418,6 +5939,12 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5479,13 +6006,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5559,242 +6086,246 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:17" s="25" customFormat="1" ht="14.25">
-      <c r="A5" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="A5" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
     </row>
     <row r="7" spans="1:17" s="27" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:17" s="27" customFormat="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="142"/>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:17" s="27" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-    </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" ht="259.5" customHeight="1">
-      <c r="A11" s="131" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
+      <c r="A10" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
+    </row>
+    <row r="11" spans="1:17" s="31" customFormat="1" ht="330" customHeight="1">
+      <c r="A11" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
+      <c r="A12" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="A13" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="A14" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
+      <c r="A15" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
+      <c r="A16" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A17" s="134"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
+      <c r="A17" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="A18" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
+      <c r="A19" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
-    </row>
-    <row r="21" spans="1:12" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
+      <c r="A20" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
+    </row>
+    <row r="21" spans="1:12" s="68" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
     </row>
@@ -5805,24 +6336,26 @@
       <c r="B22" s="47"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
     </row>
     <row r="23" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="147"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
+      <c r="A23" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
@@ -5831,116 +6364,116 @@
         <v>1</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+        <v>49</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
     </row>
     <row r="25" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
+      <c r="A25" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
     </row>
     <row r="26" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="120"/>
+      <c r="D26" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="144" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="115"/>
     </row>
     <row r="27" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="115"/>
     </row>
     <row r="29" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="115"/>
     </row>
     <row r="30" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="115"/>
     </row>
     <row r="32" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="29"/>
@@ -5957,51 +6490,35 @@
         <v>1</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+        <v>19</v>
+      </c>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
     </row>
     <row r="34" spans="1:10" ht="14.25">
       <c r="A34" s="9">
         <v>2</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
+        <v>19</v>
+      </c>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A23:J23"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="A19:J19"/>
@@ -6016,6 +6533,22 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A17:J17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
@@ -6029,123 +6562,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="57" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="57" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="57" customWidth="1"/>
-    <col min="7" max="7" width="13" style="57" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.25" style="57" customWidth="1"/>
-    <col min="10" max="10" width="34.375" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="4.25" style="56" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="56" customWidth="1"/>
+    <col min="3" max="4" width="18.25" style="56" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="56" customWidth="1"/>
+    <col min="7" max="7" width="13" style="56" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.25" style="56" customWidth="1"/>
+    <col min="10" max="10" width="34.375" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
     </row>
     <row r="4" spans="1:22" ht="6.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:22" ht="6.75" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="158" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B6" s="159"/>
       <c r="C6" s="159"/>
@@ -6155,71 +6688,55 @@
       <c r="G6" s="159"/>
       <c r="H6" s="159"/>
       <c r="I6" s="160"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="72">
+      <c r="A8" s="71">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="45"/>
@@ -6233,7 +6750,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="158" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B10" s="159"/>
       <c r="C10" s="159"/>
@@ -6246,92 +6763,58 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="60">
-        <v>1</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="60"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="72">
-        <v>2</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A13" s="71"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="158" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="159"/>
       <c r="C15" s="159"/>
@@ -6344,461 +6827,577 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="59">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="60">
+      <c r="G17" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="71">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="71">
+        <v>2</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0</v>
+      </c>
+      <c r="I18" s="59"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="59">
+        <v>3</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="59">
+        <v>4</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="71">
+        <v>0</v>
+      </c>
+      <c r="I20" s="59"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="71">
+        <v>5</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="71">
+        <v>0</v>
+      </c>
+      <c r="I21" s="59"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="73"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="74">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="57"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="74">
+        <v>2</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="74">
+        <v>3</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="75"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="74">
+        <v>4</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="75"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="74">
+        <v>5</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="50" t="s">
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="74">
+        <v>1</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="59">
+        <v>0</v>
+      </c>
+      <c r="I33" s="57"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="74">
+        <v>1</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="84"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="74">
+        <v>2</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="84"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="74">
+        <v>3</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="74">
+        <v>4</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="75"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="74">
+        <v>5</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="55"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="60"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="72">
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="74">
+        <v>1</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="84"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="74">
         <v>2</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="74"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="75">
-        <v>1</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="75">
-        <v>2</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="75">
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="84"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="74">
         <v>3</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="76"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="75">
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="74">
         <v>4</v>
       </c>
-      <c r="B25" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="76"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="75">
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="75"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="74">
         <v>5</v>
       </c>
-      <c r="B26" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="75">
-        <v>6</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="55"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="75">
-        <v>7</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="55"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="75">
-        <v>8</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="75">
-        <v>9</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="55"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="157" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="75">
-        <v>1</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="58"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A20:I20"/>
+  <mergeCells count="8">
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A23:I23"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A31:I31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
@@ -6812,12 +7411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6895,271 +7494,276 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="169" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
+      <c r="A5" s="190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="184" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="171"/>
+      <c r="I5" s="184"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="177"/>
+      <c r="A6" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="193"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="197"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="170" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="187" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
+        <v>33</v>
+      </c>
+      <c r="F7" s="181" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
       <c r="I7" s="38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="39">
         <v>1</v>
       </c>
-      <c r="B8" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="161"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
+        <v>38</v>
+      </c>
+      <c r="F8" s="166"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
       <c r="I8" s="41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="166"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
       <c r="I9" s="41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="39">
         <v>3</v>
       </c>
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
       <c r="I10" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="181" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
+      <c r="A11" s="173" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="39">
         <v>1</v>
       </c>
-      <c r="B12" s="163" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165" t="s">
+      <c r="B12" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="39">
         <v>2</v>
       </c>
-      <c r="B13" s="163" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="165" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
+      <c r="B13" s="178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="179" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="164">
+      <c r="A14" s="167">
         <v>3</v>
       </c>
-      <c r="B14" s="184" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="184" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="B14" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="164"/>
-      <c r="B15" s="163" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="42" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="190"/>
+        <v>41</v>
+      </c>
+      <c r="G15" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="187"/>
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="164"/>
-      <c r="B16" s="161" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="39"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="191" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="91"/>
+      <c r="G16" s="188" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="89"/>
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="164"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="126"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="118"/>
       <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="164"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="146"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="164"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="146"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="164"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="164" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A14:A20"/>
@@ -7176,17 +7780,12 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
@@ -7198,243 +7797,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="22" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="20" customFormat="1" ht="15.75">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="62">
-        <v>41550</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:19" s="20" customFormat="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" s="20" customFormat="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" s="20" customFormat="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" s="20" customFormat="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" s="20" customFormat="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" s="20" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" s="20" customFormat="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="23"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="23"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="23"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="23"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="23"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="23"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="23"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="23"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="23"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="23"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="23"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="23"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="23"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="23"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="23"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="23"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="23"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="23"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="23"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
-詳細設計書</oddHeader>
-    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,36 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="APF0001MM1" sheetId="7" r:id="rId4"/>
-    <sheet name="panAPF0001MM1" sheetId="14" r:id="rId5"/>
+    <sheet name="欄位說明APF0001MM1" sheetId="14" r:id="rId4"/>
+    <sheet name="APF0001MM1" sheetId="7" r:id="rId5"/>
     <sheet name="method-bsLoadAPF0001MM1Qry" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">APF0001MM1!$A$1:$J$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">panAPF0001MM1!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">APF0001MM1!$A$1:$J$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">APF0001MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">欄位說明APF0001MM1!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">APF0001MM1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'method-bsLoadAPF0001MM1Qry'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">panAPF0001MM1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">APF0001MM1!#REF!</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">欄位說明APF0001MM1!$1:$5</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">APF0001MM1!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -819,10 +819,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>panAPF0001MM1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>View</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -879,80 +875,88 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1 panAPF0001MM1_Menu(功能清單)
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>員編</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtEMP_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtEMP_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡覽列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 APF0001MM1_Menu(功能清單)
 1.1 第一層為模組別，被選取的模組別顯示顏色，及其他未被選取的模組別顯示顏色，請參考UI規範。
 1.2 被選取的模組展開並顯示模組內的功能清單，功能清單以樹狀呈現(參考UI規範)，最多可顯示三層樹狀結構。
 1.3 功能清單若有下層子節點，則該功能清單無法繫結URL連結。
-2 panAPF0001MM1_Status(使用者資訊、系統時間及登出)
+2 APF0001MM1_Status(使用者資訊、系統時間及登出)
 2.1 包含：員編、姓名、部門、職稱、系統時間，及登出按鈕。
-3 panAPF0001MM1_Marquee(系統跑馬燈)
+3 APF0001MM1_Marquee(系統跑馬燈)
 3.1 可顯示系統公告等系統資訊(公布欄訊息來源為EMS模組)。
-4 panAPF0001MM1_Path(巡覽列)：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
-5 panAPF0001MM1_Tab(頁籤)
+4 APF0001MM1_Path(巡覽列)：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
+5 APF0001MM1_Tab(頁籤)
 5.1 包含首頁頁籤最多可顯示6個頁籤。
 5.2 最左方固定顯示首頁頁籤，首頁頁籤顯示歡迎圖檔(future連結公佈欄，公布欄資料來源為EMS)，且無法關閉。
 5.3 操作中的頁籤顯示顏色，及其他頁籤顯示顏色，請參考UI規範。
 5.4 各頁籤依APF DB參數檔所設定的Session timeout時間，逾時後頁籤閃爍提醒。
 5.5 點選頁籤中的x按鈕則可關閉頁籤。
 5.6頁籤關閉時，須告知各模組已關閉該功能以利清除該模組的session(各模組須提供API)。
-6 panAPF0001MM1_Content(主要內容)：顯示各功能清單的操作頁面。
-7 panAPF0001MM1_Msg(異常警示、待辦事項區塊)：顯示系統異常警示、及個人待辦事項。</t>
+6 APF0001MM1_Content(主要內容)：顯示各功能清單的操作頁面。
+7 APF0001MM1_Msg(異常警示、待辦事項區塊)：顯示系統異常警示、及個人待辦事項。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>emp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>職稱</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員編</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtEMP_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtEMP_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡覽列</t>
+    <t>欄位說明APF0001MM1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1714,71 +1718,242 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1798,136 +1973,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +1982,102 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1951,146 +2093,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3245,6 +3249,537 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10465" name="群組 1"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="57150"/>
+          <a:ext cx="11744325" cy="514350"/>
+          <a:chOff x="0" y="57150"/>
+          <a:chExt cx="11744325" cy="514350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10466" name="Line 8"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="57150"/>
+            <a:ext cx="11744325" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10252" name="Rectangle 12"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="133350"/>
+            <a:ext cx="1171575" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10253" name="Rectangle 13"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1019175" y="133350"/>
+            <a:ext cx="1971675" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10254" name="Rectangle 14"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2990850" y="133350"/>
+            <a:ext cx="3228975" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0001 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>登入主畫面與框架顯示</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10255" name="Rectangle 15"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="6229350" y="133350"/>
+            <a:ext cx="3914775" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0001MM1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>登入主畫面與框架顯示</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10256" name="Rectangle 16"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10039350" y="133350"/>
+            <a:ext cx="981075" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10257" name="Rectangle 17"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="10906125" y="133350"/>
+            <a:ext cx="838200" cy="438150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>20131003</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -3813,537 +4348,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10465" name="群組 1"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="57150"/>
-          <a:ext cx="11744325" cy="514350"/>
-          <a:chOff x="0" y="57150"/>
-          <a:chExt cx="11744325" cy="514350"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10466" name="Line 8"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="57150"/>
-            <a:ext cx="11744325" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150" cmpd="thinThick">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10252" name="Rectangle 12"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="133350"/>
-            <a:ext cx="1171575" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>大項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Online</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>作業</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10253" name="Rectangle 13"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1019175" y="133350"/>
-            <a:ext cx="1971675" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>中項目</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>使用者管理</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10254" name="Rectangle 14"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2990850" y="133350"/>
-            <a:ext cx="3228975" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>細項</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0001 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>登入主畫面與框架顯示</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10255" name="Rectangle 15"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6229350" y="133350"/>
-            <a:ext cx="3914775" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-              </a:rPr>
-              <a:t>標題</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0001MM1 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>登入主畫面與框架顯示</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
-              <a:effectLst/>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10256" name="Rectangle 16"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="10039350" y="133350"/>
-            <a:ext cx="981075" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作人</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>陳慕霖</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體"/>
-              <a:ea typeface="標楷體"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10257" name="Rectangle 17"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="10906125" y="133350"/>
-            <a:ext cx="838200" cy="438150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體"/>
-                <a:ea typeface="標楷體"/>
-              </a:rPr>
-              <a:t>製作日</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>20131003</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5244,154 +5248,154 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="200" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="200" customWidth="1"/>
-    <col min="3" max="3" width="59.125" style="200" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="200" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="200"/>
+    <col min="1" max="1" width="29.375" style="85" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="59.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
+      <c r="A2" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
+      <c r="A3" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="201" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="202" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="202" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="203" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="204" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="205" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="205" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="206" t="s">
+      <c r="B4" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="207" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="205" t="s">
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="207"/>
-      <c r="B5" s="205" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="206" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="205" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206" t="s">
-        <v>106</v>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="207"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="206"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="207"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="206"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="207"/>
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="206"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="207"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="206"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="207"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="206"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="207"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="206"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A13" s="208"/>
-      <c r="B13" s="209"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D14" s="211"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="D15" s="211"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="D16" s="211"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="211"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="211"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="212"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="211"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="211"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="211"/>
+      <c r="D22" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5403,9 +5407,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4:D5" location="功能簡述!A1" display="View"/>
-    <hyperlink ref="D4" location="APF0001MM1!A1" display="View"/>
-    <hyperlink ref="D5" location="panAPF0001MM1!A1" display="View"/>
+    <hyperlink ref="D5" location="功能簡述!A1" display="View"/>
+    <hyperlink ref="D5" location="APF0001MM1!A1" display="View"/>
+    <hyperlink ref="D4" location="欄位說明APF0001MM1!A1" display="View"/>
     <hyperlink ref="D6" location="'method-bsLoadAPF0001MM1Qry'!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5656,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5684,245 +5688,251 @@
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="99" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
     </row>
     <row r="8" spans="1:12" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="85" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="114"/>
     </row>
     <row r="9" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
     </row>
     <row r="10" spans="1:12" s="81" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="85" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
     </row>
     <row r="11" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
     </row>
     <row r="12" spans="1:12" s="81" customFormat="1">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="114"/>
     </row>
     <row r="13" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
     </row>
     <row r="14" spans="1:12" s="81" customFormat="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="85" t="s">
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
     </row>
     <row r="15" spans="1:12" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="89"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:12" s="80" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="103"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="89"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="89"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:L14"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A17:L17"/>
@@ -5939,12 +5949,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:L14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6008,566 +6012,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="25" customFormat="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" s="25" customFormat="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" s="25" customFormat="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" s="25" customFormat="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="14.25">
-      <c r="A5" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
-    </row>
-    <row r="6" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="138"/>
-    </row>
-    <row r="7" spans="1:17" s="27" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:17" s="27" customFormat="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:17" s="27" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
-    </row>
-    <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
-    </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" ht="330" customHeight="1">
-      <c r="A11" s="151" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="153"/>
-    </row>
-    <row r="12" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-    </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
-    </row>
-    <row r="14" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
-    </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="150" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
-    </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A17" s="154" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="156"/>
-    </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="147" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-    </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A19" s="154" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="135"/>
-    </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="147" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
-    </row>
-    <row r="21" spans="1:12" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="46">
-        <v>1</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-    </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="A24" s="53">
-        <v>1</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-    </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="123"/>
-    </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115"/>
-    </row>
-    <row r="27" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="108"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="110"/>
-    </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="115"/>
-    </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="115"/>
-    </row>
-    <row r="30" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110"/>
-    </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="115"/>
-    </row>
-    <row r="32" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="9">
-        <v>1</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="118"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25">
-      <c r="A34" s="9">
-        <v>2</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToHeight="2" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
-詳細設計書</oddHeader>
-    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6677,17 +6125,17 @@
       <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
@@ -6749,17 +6197,17 @@
       <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="158" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="160"/>
+      <c r="A10" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="174"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
@@ -6813,17 +6261,17 @@
       <c r="I13" s="3"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="158" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="160"/>
+      <c r="A15" s="172" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="174"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
@@ -6859,23 +6307,23 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="71">
-        <v>0</v>
+      <c r="H17" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="I17" s="59"/>
     </row>
@@ -6884,23 +6332,23 @@
         <v>2</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="54">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="I18" s="59"/>
     </row>
@@ -6909,15 +6357,15 @@
         <v>3</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
-      <c r="H19" s="54">
-        <v>0</v>
+      <c r="H19" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="I19" s="59"/>
     </row>
@@ -6926,15 +6374,15 @@
         <v>4</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="62"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="71">
-        <v>0</v>
+      <c r="H20" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="I20" s="59"/>
     </row>
@@ -6943,15 +6391,15 @@
         <v>5</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
       <c r="F21" s="62"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="71">
-        <v>0</v>
+      <c r="H21" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="I21" s="59"/>
     </row>
@@ -6967,17 +6415,17 @@
       <c r="J22" s="73"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
+      <c r="A23" s="171" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="72" t="s">
@@ -7074,17 +6522,17 @@
       <c r="I29" s="55"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
+      <c r="A31" s="171" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="72" t="s">
@@ -7120,30 +6568,30 @@
         <v>1</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="62"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
-      <c r="H33" s="59">
-        <v>0</v>
+      <c r="H33" s="71" t="s">
+        <v>132</v>
       </c>
       <c r="I33" s="57"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="157" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
+      <c r="A36" s="171" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="72" t="s">
@@ -7240,17 +6688,17 @@
       <c r="I42" s="55"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
+      <c r="A44" s="171" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="72" t="s">
@@ -7282,17 +6730,17 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="157" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
+      <c r="A47" s="171" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="72" t="s">
@@ -7402,6 +6850,562 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
+詳細設計書</oddHeader>
+    <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="25" customFormat="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" s="25" customFormat="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" s="25" customFormat="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" s="25" customFormat="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" s="25" customFormat="1" ht="14.25">
+      <c r="A5" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+    </row>
+    <row r="7" spans="1:17" s="27" customFormat="1" ht="144" customHeight="1">
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" s="27" customFormat="1">
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:17" s="27" customFormat="1" ht="153" customHeight="1">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
+    </row>
+    <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+    </row>
+    <row r="11" spans="1:17" s="31" customFormat="1" ht="330" customHeight="1">
+      <c r="A11" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+    </row>
+    <row r="12" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+    </row>
+    <row r="13" spans="1:17" s="31" customFormat="1" ht="51" customHeight="1">
+      <c r="A13" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+    </row>
+    <row r="15" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+    </row>
+    <row r="16" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+    </row>
+    <row r="17" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A17" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
+    </row>
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="143"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="144"/>
+    </row>
+    <row r="19" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A19" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+    </row>
+    <row r="20" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
+    </row>
+    <row r="21" spans="1:12" s="68" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="46">
+        <v>1</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+    </row>
+    <row r="23" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" s="27" customFormat="1" ht="33" customHeight="1">
+      <c r="A24" s="53">
+        <v>1</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+    </row>
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="155"/>
+    </row>
+    <row r="26" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="152"/>
+      <c r="D26" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
+    </row>
+    <row r="27" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="165"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="160"/>
+    </row>
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+    </row>
+    <row r="30" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="165"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="167"/>
+    </row>
+    <row r="31" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="160"/>
+    </row>
+    <row r="32" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="170"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.25">
+      <c r="A34" s="9">
+        <v>2</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A17:J17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
+  <pageSetup paperSize="9" fitToHeight="2" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;16統一速達二代系統專案
 詳細設計書</oddHeader>
@@ -7494,56 +7498,56 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="184" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
       <c r="G5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="183" t="s">
+      <c r="H5" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="184"/>
+      <c r="I5" s="185"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="195" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="197"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="194"/>
       <c r="E7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="181" t="s">
+      <c r="F7" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
       <c r="I7" s="38" t="s">
         <v>35</v>
       </c>
@@ -7552,17 +7556,17 @@
       <c r="A8" s="39">
         <v>1</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
       <c r="E8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
       <c r="I8" s="41" t="s">
         <v>39</v>
       </c>
@@ -7571,17 +7575,17 @@
       <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="166"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
       <c r="I9" s="41" t="s">
         <v>39</v>
       </c>
@@ -7590,62 +7594,62 @@
       <c r="A10" s="39">
         <v>3</v>
       </c>
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="166" t="s">
+      <c r="F10" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
       <c r="I10" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="174"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="175"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="197"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="39">
         <v>1</v>
       </c>
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="39">
         <v>2</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="179" t="s">
         <v>76</v>
       </c>
@@ -7655,115 +7659,110 @@
       <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="167">
+      <c r="A14" s="178">
         <v>3</v>
       </c>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="176" t="s">
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="167"/>
-      <c r="B15" s="178" t="s">
+      <c r="A15" s="178"/>
+      <c r="B15" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
       <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="113" t="s">
+      <c r="G15" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="187"/>
+      <c r="H15" s="204"/>
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="167"/>
-      <c r="B16" s="166" t="s">
+      <c r="A16" s="178"/>
+      <c r="B16" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="39"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="188" t="s">
+      <c r="G16" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="89"/>
+      <c r="H16" s="106"/>
       <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="167"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="39"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="118"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="141"/>
       <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="167"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="115"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="160"/>
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="167"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="115"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="160"/>
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="167"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167" t="s">
+      <c r="A20" s="178"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A14:A20"/>
@@ -7780,12 +7779,17 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="method-bsLoadAPF0001MM1Qry" sheetId="15" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">APF0001MM1!$A$1:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">APF0001MM1!$A$1:$J$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">欄位說明APF0001MM1!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">欄位說明APF0001MM1!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">APF0001MM1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'method-bsLoadAPF0001MM1Qry'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="173">
   <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -679,73 +679,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>前畫面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:SSO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>登入頁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成立條件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:Online</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>作業時間內</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前檢核</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -758,10 +691,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -771,7 +700,7 @@
   </si>
   <si>
     <t>用途分類</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -788,31 +717,31 @@
       </rPr>
       <t>名稱</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>說明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>連結</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能簡述</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>APF0001MM1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>method-bsLoadAPF0001MM1Qry</t>
@@ -820,7 +749,7 @@
   </si>
   <si>
     <t>View</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -836,43 +765,11 @@
       </rPr>
       <t>總表</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>登入主畫面與框架顯示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Status</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Menu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Status</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Marquee</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Path</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Tab</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Content</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>panAPF0001MM1_Msg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>無</t>
@@ -915,7 +812,71 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>部門</t>
+    <t>巡覽列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位說明APF0001MM1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門名稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_d.unit_id = unit.unit_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Menu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Marquee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Path</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Tab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Msg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_d.suda_work_id = suda_work.suda_work_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -927,37 +888,183 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>巡覽列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 APF0001MM1_Menu(功能清單)
-1.1 第一層為模組別，被選取的模組別顯示顏色，及其他未被選取的模組別顯示顏色，請參考UI規範。
-1.2 被選取的模組展開並顯示模組內的功能清單，功能清單以樹狀呈現(參考UI規範)，最多可顯示三層樹狀結構。
-1.3 功能清單若有下層子節點，則該功能清單無法繫結URL連結。
-2 APF0001MM1_Status(使用者資訊、系統時間及登出)
-2.1 包含：員編、姓名、部門、職稱、系統時間，及登出按鈕。
-3 APF0001MM1_Marquee(系統跑馬燈)
-3.1 可顯示系統公告等系統資訊(公布欄訊息來源為EMS模組)。
-4 APF0001MM1_Path(巡覽列)：顯示目前操作中的頁籤，其對應的模組及功能清單結構路徑。
-5 APF0001MM1_Tab(頁籤)
-5.1 包含首頁頁籤最多可顯示6個頁籤。
-5.2 最左方固定顯示首頁頁籤，首頁頁籤顯示歡迎圖檔(future連結公佈欄，公布欄資料來源為EMS)，且無法關閉。
-5.3 操作中的頁籤顯示顏色，及其他頁籤顯示顏色，請參考UI規範。
-5.4 各頁籤依APF DB參數檔所設定的Session timeout時間，逾時後頁籤閃爍提醒。
-5.5 點選頁籤中的x按鈕則可關閉頁籤。
-5.6頁籤關閉時，須告知各模組已關閉該功能以利清除該模組的session(各模組須提供API)。
-6 APF0001MM1_Content(主要內容)：顯示各功能清單的操作頁面。
-7 APF0001MM1_Msg(異常警示、待辦事項區塊)：顯示系統異常警示、及個人待辦事項。</t>
+    <t>unit_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtUNIT_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtSYSTEM_TIME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtSUDA_WORK_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DateTime </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd HH:mm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組別/功能類別/功能清單</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>頁籤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清單</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常警示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待辦事項</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑馬燈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Status</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>欄位說明APF0001MM1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>功能清單</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組別</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能類別</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_root</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前畫面:SSO登入頁(APF0002MM1)
+1.1 SESSION內容:
+  1.1.1 Session1:使用者登入資訊，包含員編、姓名、部門名稱、職稱名稱，作為APF0001MM1_Status來源及系統參數使用。
+  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
+  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
+1.2 成立條件:
+  1.2.1 使用者狀態為生效中。
+  1.2.2 使用者並無重複登入，或選擇清除前次登入。
+  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0001MM1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：APF登入時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.系統以確認訊息視窗，提示訊息"是否登出?"
+2.若選擇是
+  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
+  2.2導回SSO登入頁(APF0002MM1)。
+3.若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之帳號必須於CMD emp檢視表(View)查詢為生效中，若不是則出現錯誤訊息"使用者帳號未生效"，並導回APF0002MM1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之帳號不得重複登入，如重複登入，以確認訊息視窗，詢問是否清除前次登入並再次登入(即後蓋前方式再次登入)。若使用者選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，則回應「不允許重覆登入」訊息，並導回APF0002MM1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如密碼已逾期或為初次登入，系統回應須強制更新密碼。
+1.進行更新密碼作業(系統導向功能APF0301，以浮動視窗顯示在最上層，並遮蔽後方頁面)。
+2.完成變更密碼後，可解除遮蔽並顯示系統主頁面。
+3.若使用者取消變更密碼，則導回APF0002MM1。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -967,7 +1074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1012,12 +1119,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1038,25 +1139,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1144,6 +1226,26 @@
       <color indexed="12"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1484,73 +1586,22 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1560,36 +1611,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,484 +1644,541 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2141,7 +2225,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9544050" cy="438150"/>
+          <a:ext cx="9544050" cy="542925"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -2649,7 +2733,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9953625" cy="495300"/>
+          <a:ext cx="9953625" cy="523875"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3147,8 +3231,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>200025</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3193,14 +3277,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3252,7 +3336,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -3267,7 +3351,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="11744325" cy="514350"/>
+          <a:ext cx="12011025" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -3798,7 +3882,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9458325" cy="438150"/>
+          <a:ext cx="9458325" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -4306,22 +4390,74 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15121</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18568</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1905935</xdr:rowOff>
+      <xdr:rowOff>1914525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4340,8 +4476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228601" y="895350"/>
-          <a:ext cx="5406270" cy="4020485"/>
+          <a:off x="38100" y="1066800"/>
+          <a:ext cx="6619393" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4378,7 +4514,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9191625" cy="514350"/>
+          <a:ext cx="9191625" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -5248,154 +5384,154 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="85" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="59.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="85"/>
+    <col min="1" max="1" width="29.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="59.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
+      <c r="A1" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="D2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="87" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="B3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="D3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="90" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="90" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="90"/>
+      <c r="B5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="90"/>
+      <c r="B6" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="90" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1" thickBot="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickTop="1">
-      <c r="D14" s="95"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="D15" s="95"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="D16" s="95"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="95"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="95"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="96"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="95"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="95"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="95"/>
+      <c r="D22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5422,229 +5558,238 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="22" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="5.125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="59" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="59" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="12.75">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75">
-      <c r="A5" s="14" t="s">
+    <row r="1" spans="1:19" ht="17.25" thickTop="1">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="20" customFormat="1" ht="15.75">
-      <c r="A6" s="16">
+      <c r="E5" s="51"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:19" s="56" customFormat="1">
+      <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="61">
+      <c r="C6" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="53">
         <v>41550</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:19" s="20" customFormat="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" s="20" customFormat="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" s="20" customFormat="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" s="20" customFormat="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" s="20" customFormat="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" s="20" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" s="20" customFormat="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:19" s="56" customFormat="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:19" s="56" customFormat="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:19" s="56" customFormat="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" s="56" customFormat="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:19" s="56" customFormat="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:19" s="56" customFormat="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" s="56" customFormat="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="58"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="58"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="58"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="58"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="58"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="58"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="58"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="58"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="58"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="58"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="58"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="58"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="58"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="58"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="58"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="58"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="58"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="58"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="58"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:E3"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="E1:E3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -5658,277 +5803,296 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L16"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="82"/>
-    <col min="2" max="2" width="17.75" style="82" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="82" customWidth="1"/>
-    <col min="4" max="4" width="15" style="82" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="82"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="17.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" s="79" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="104" t="s">
+    <row r="1" spans="1:13" ht="17.25" thickTop="1">
+      <c r="M1" s="91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="M3" s="92"/>
+    </row>
+    <row r="4" spans="1:13" s="87" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:13" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
-    </row>
-    <row r="6" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="117" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
+    </row>
+    <row r="6" spans="1:13" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="119"/>
-    </row>
-    <row r="7" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
+    </row>
+    <row r="7" spans="1:13" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="101" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-    </row>
-    <row r="8" spans="1:12" s="81" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="111" t="s">
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+    </row>
+    <row r="8" spans="1:13" s="65" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="105" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94"/>
+    </row>
+    <row r="9" spans="1:13" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
-    </row>
-    <row r="10" spans="1:12" s="81" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A10" s="111" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
+    </row>
+    <row r="10" spans="1:13" s="65" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="105" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-    </row>
-    <row r="11" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="120" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-    </row>
-    <row r="12" spans="1:12" s="81" customFormat="1">
-      <c r="A12" s="111" t="s">
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
+    </row>
+    <row r="12" spans="1:13" s="65" customFormat="1">
+      <c r="A12" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="114"/>
-    </row>
-    <row r="13" spans="1:12" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="109" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
+    </row>
+    <row r="13" spans="1:13" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="120" t="s">
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103"/>
-    </row>
-    <row r="14" spans="1:12" s="81" customFormat="1">
-      <c r="A14" s="111" t="s">
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
+    </row>
+    <row r="14" spans="1:13" s="65" customFormat="1">
+      <c r="A14" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="105" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-    </row>
-    <row r="15" spans="1:12" s="80" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+    </row>
+    <row r="15" spans="1:13" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="106"/>
-    </row>
-    <row r="16" spans="1:12" s="80" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+    </row>
+    <row r="16" spans="1:13" s="63" customFormat="1" ht="186" customHeight="1">
+      <c r="A16" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="116"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="109"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="106"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A50:L50"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5942,15 +6106,12 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="M1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="M1:M3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5970,8 +6131,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5989,14 +6150,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6012,842 +6173,965 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="56" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="56" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="56" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="13" style="56" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.25" style="56" customWidth="1"/>
-    <col min="10" max="10" width="34.375" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="4.25" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="31" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="14.375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11" style="31" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.75" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-    </row>
-    <row r="4" spans="1:22" ht="6.75" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-    </row>
-    <row r="5" spans="1:22" ht="6.75" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="172" t="s">
+    <row r="1" spans="1:23" ht="17.25" thickTop="1">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:23" ht="6.75" customHeight="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+    </row>
+    <row r="5" spans="1:23" ht="6.75" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="71">
+    <row r="8" spans="1:23">
+      <c r="A8" s="33">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="172" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="38">
+        <v>1</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="38">
+        <v>2</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="38">
+        <v>3</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="38">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="174"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="33">
+        <v>2</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="38">
+        <v>3</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33">
+      <c r="A22" s="38">
+        <v>4</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="33">
+        <v>5</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E26" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F26" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G26" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H26" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J26" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="59"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="59"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="71"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="172" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="174"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="1" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="45">
+        <v>1</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="45">
+        <v>2</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="45">
+        <v>3</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="45">
+        <v>4</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="49"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="45">
+        <v>5</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B34" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C34" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D34" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E34" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F34" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H34" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J34" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="59">
+    <row r="35" spans="1:10">
+      <c r="A35" s="45">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B35" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="59"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="71">
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="45">
+        <v>1</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="45">
+        <v>1</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47" s="48"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="45">
         <v>2</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="59">
+      <c r="B48" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="48"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="45">
         <v>3</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="59"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="59">
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="49"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="45">
         <v>4</v>
       </c>
-      <c r="B20" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="59"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="71">
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="49"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="45">
         <v>5</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="59"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="73"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="171" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="74">
-        <v>1</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="74">
-        <v>2</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="74">
-        <v>3</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="75"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="74">
-        <v>4</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="75"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="74">
-        <v>5</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="171" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="74">
-        <v>1</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="171" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="74">
-        <v>1</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="84"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="74">
-        <v>2</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="84"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="74">
-        <v>3</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="75"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="74">
-        <v>4</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="75"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="74">
-        <v>5</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="55"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="171" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="74">
-        <v>1</v>
-      </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="84"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="74">
-        <v>2</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="84"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="74">
-        <v>3</v>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="75"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="74">
-        <v>4</v>
-      </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="75"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="74">
-        <v>5</v>
-      </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="55"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A31:I31"/>
+  <mergeCells count="9">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A33:J33"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -6860,550 +7144,958 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="3.5" style="61" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="63" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="61" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="61" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="61" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="25" customFormat="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" s="25" customFormat="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" s="25" customFormat="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" s="25" customFormat="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="14.25">
-      <c r="A5" s="121" t="s">
+    <row r="1" spans="1:17" s="62" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+    </row>
+    <row r="2" spans="1:17" s="62" customFormat="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="92"/>
+    </row>
+    <row r="3" spans="1:17" s="62" customFormat="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="92"/>
+    </row>
+    <row r="4" spans="1:17" s="62" customFormat="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" s="62" customFormat="1">
+      <c r="A5" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="123"/>
-    </row>
-    <row r="6" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="129"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
-    </row>
-    <row r="7" spans="1:17" s="27" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:17" s="27" customFormat="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:17" s="27" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
-    </row>
-    <row r="10" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+    </row>
+    <row r="6" spans="1:17" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="112"/>
+    </row>
+    <row r="7" spans="1:17" s="63" customFormat="1" ht="144" customHeight="1">
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="1:17" s="63" customFormat="1">
+      <c r="A8" s="145"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="1:17" s="63" customFormat="1" ht="153" customHeight="1">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+    </row>
+    <row r="10" spans="1:17" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+    </row>
+    <row r="11" spans="1:17" s="65" customFormat="1">
+      <c r="A11" s="152"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+    </row>
+    <row r="12" spans="1:17" s="65" customFormat="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+    </row>
+    <row r="13" spans="1:17" s="65" customFormat="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:17" s="65" customFormat="1">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:17" s="65" customFormat="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:17" s="65" customFormat="1">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:10" s="65" customFormat="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:10" s="65" customFormat="1">
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:10" s="65" customFormat="1">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:10" s="65" customFormat="1">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:10" s="65" customFormat="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:10" s="65" customFormat="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:10" s="65" customFormat="1">
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+    </row>
+    <row r="24" spans="1:10" s="65" customFormat="1">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+    </row>
+    <row r="25" spans="1:10" s="65" customFormat="1">
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+    </row>
+    <row r="26" spans="1:10" s="65" customFormat="1">
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+    </row>
+    <row r="27" spans="1:10" s="65" customFormat="1">
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+    </row>
+    <row r="28" spans="1:10" s="65" customFormat="1">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+    </row>
+    <row r="29" spans="1:10" s="65" customFormat="1">
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+    </row>
+    <row r="30" spans="1:10" s="65" customFormat="1">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+    </row>
+    <row r="31" spans="1:10" s="65" customFormat="1">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+    </row>
+    <row r="32" spans="1:10" s="65" customFormat="1">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+    </row>
+    <row r="33" spans="1:10" s="65" customFormat="1">
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+    </row>
+    <row r="34" spans="1:10" s="65" customFormat="1">
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
+    </row>
+    <row r="35" spans="1:10" s="65" customFormat="1">
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
+    </row>
+    <row r="36" spans="1:10" s="65" customFormat="1">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
+    </row>
+    <row r="37" spans="1:10" s="65" customFormat="1">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="85"/>
+    </row>
+    <row r="38" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="100"/>
+    </row>
+    <row r="39" spans="1:10" s="65" customFormat="1" ht="157.5" customHeight="1">
+      <c r="A39" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="94"/>
+    </row>
+    <row r="40" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
+    </row>
+    <row r="41" spans="1:10" s="65" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A41" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="94"/>
+    </row>
+    <row r="42" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
+    </row>
+    <row r="43" spans="1:10" s="63" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A43" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="157"/>
+    </row>
+    <row r="44" spans="1:10" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="155"/>
+    </row>
+    <row r="45" spans="1:10" s="63" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A45" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="159"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
+    </row>
+    <row r="46" spans="1:10" s="63" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="119"/>
+    </row>
+    <row r="47" spans="1:10" s="63" customFormat="1" ht="36" customHeight="1">
+      <c r="A47" s="73">
+        <v>1</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="122"/>
+    </row>
+    <row r="48" spans="1:10" s="63" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A48" s="73">
+        <v>2</v>
+      </c>
+      <c r="B48" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="122"/>
+    </row>
+    <row r="49" spans="1:12" s="63" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A49" s="73">
+        <v>3</v>
+      </c>
+      <c r="B49" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="122"/>
+    </row>
+    <row r="50" spans="1:12" s="63" customFormat="1">
+      <c r="A50" s="142"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="144"/>
+    </row>
+    <row r="51" spans="1:12" s="63" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="155"/>
+    </row>
+    <row r="52" spans="1:12" s="69" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+    </row>
+    <row r="53" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="70">
+        <v>1</v>
+      </c>
+      <c r="B53" s="70"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+    </row>
+    <row r="54" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+    </row>
+    <row r="55" spans="1:12" s="63" customFormat="1" ht="104.25" customHeight="1">
+      <c r="A55" s="73">
+        <v>1</v>
+      </c>
+      <c r="B55" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" ht="330" customHeight="1">
-      <c r="A11" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
-    </row>
-    <row r="12" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-    </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" ht="51" customHeight="1">
-      <c r="A13" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
-    </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-    </row>
-    <row r="16" spans="1:17" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="121" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
-    </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A17" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
-    </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="142" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
-    </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A19" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-    </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
-    </row>
-    <row r="21" spans="1:12" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="46">
+      <c r="C55" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="76"/>
+      <c r="E55" s="135" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+    </row>
+    <row r="56" spans="1:12" s="63" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A56" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
+    </row>
+    <row r="57" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="131"/>
+      <c r="D57" s="129" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="94"/>
+    </row>
+    <row r="58" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="124"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="126"/>
+    </row>
+    <row r="59" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="77"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="94"/>
+    </row>
+    <row r="60" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="77"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="94"/>
+    </row>
+    <row r="61" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
+    </row>
+    <row r="62" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="77"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="94"/>
+    </row>
+    <row r="63" spans="1:12" s="63" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A63" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="79"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="81"/>
+    </row>
+    <row r="64" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="77">
         <v>1</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-    </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" ht="33" customHeight="1">
-      <c r="A24" s="53">
-        <v>1</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-    </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
-    </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="151" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="158" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="160"/>
-    </row>
-    <row r="27" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
-    </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="160"/>
-    </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
-    </row>
-    <row r="30" spans="1:12" s="31" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="165"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
-    </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="160"/>
-    </row>
-    <row r="32" spans="1:12" s="27" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:10" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="9">
-        <v>1</v>
-      </c>
-      <c r="B33" s="34" t="s">
+      <c r="B64" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="141"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.25">
-      <c r="A34" s="9">
+      <c r="C64" s="127"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="94"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="77">
         <v>2</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B65" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A23:J23"/>
+  <mergeCells count="36">
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="K1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" fitToHeight="2" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -7412,6 +8104,34 @@
     <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="5121" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="5121" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -7420,349 +8140,363 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9" style="36"/>
-    <col min="5" max="5" width="10.75" style="36" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="36" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="11.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="10.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="25" customFormat="1" ht="14.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-    </row>
-    <row r="2" spans="1:19" s="25" customFormat="1" ht="12.75">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" s="25" customFormat="1" ht="12.75">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" s="25" customFormat="1" ht="12.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+    <row r="1" spans="1:19" s="4" customFormat="1" thickTop="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="12.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="185" t="s">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="37" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="185"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189" t="s">
+      <c r="B6" s="197"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="191"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="201"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="193"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="201" t="s">
+      <c r="F7" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="38" t="s">
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="39">
+      <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="39" t="s">
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="175"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="41" t="s">
+      <c r="F8" s="171"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="39">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="39" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="175"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="41" t="s">
+      <c r="F9" s="171"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="39">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="175" t="s">
+      <c r="F10" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="41" t="s">
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="197"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="166"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="39">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179" t="s">
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
-      <c r="A13" s="39">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179" t="s">
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="178">
+      <c r="A14" s="167">
         <v>3</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="198" t="s">
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="178"/>
-      <c r="B15" s="177" t="s">
+      <c r="A15" s="167"/>
+      <c r="B15" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="42" t="s">
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="158" t="s">
+      <c r="G15" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="204"/>
-      <c r="I15" s="26"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="178"/>
-      <c r="B16" s="175" t="s">
+      <c r="A16" s="167"/>
+      <c r="B16" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="205" t="s">
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="26"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="178"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="178"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="43"/>
+      <c r="A18" s="167"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="178"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="43"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="178"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="178" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:I6"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A14:A20"/>
@@ -7772,26 +8506,19 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E14:I14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="J1:J3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="1.3779527559055118" bottom="0.78740157480314965" header="0.78740157480314965" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" fitToHeight="3" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -667,18 +667,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>檢核重覆登入與帳號生/失效驗證
-1.重覆登入檢核，如相同帳號已登入則系統顯示「已重覆登入」資訊。
-2.帳號生/失效檢核，如未生效 or 已失效則導回SSO並顯示「登入失敗」資訊。
-更新逾期密碼(2個月) or 初次登入的預設密碼 
-1.密碼逾期回應逾期訊息，且提供更新畫面(功能導向APF0301)
-顯示登入後主要畫面
-1.顯示系統登入驗證視窗(功能導向APF0002)
-2.系統依取得的權限資料顯示功能清單
-3.系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前檢核</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1040,30 +1028,108 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.系統以確認訊息視窗，提示訊息"是否登出?"
+    <t>密碼</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>如密碼已逾期或為初次登入，系統回應須強制更新密碼。
+1.進行更新密碼作業(系統導向功能APF0301，以浮動視窗顯示在最上層，並遮蔽後方頁面)。
+2.完成變更密碼後，可解除遮蔽並顯示系統主頁面。
+3.若使用者取消變更密碼，則導回APF0002MM1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核重覆登入與帳號生/失效驗證
+1.重覆登入檢核，如相同帳號已登入則系統顯示錯誤訊息。
+2.帳號生/失效檢核，如未生效 or 已失效則導回SSO並顯示錯誤訊息。
+更新逾期密碼(2個月) or 初次登入的預設密碼 
+1.密碼逾期回應逾期訊息，且提供更新畫面(功能導向APF0301)
+顯示登入後主要畫面
+1.顯示系統登入驗證視窗(功能導向APF0002)
+2.系統依取得的權限資料顯示功能清單
+3.系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>輸入之帳號必須於CMD emp檢視表(View)查詢為生效中，若不是則出現錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，並導回APF0002MM1。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>輸入之帳號不得重複登入，如重複登入，以確認訊息視窗，詢問是否清除前次登入並再次登入(即後蓋前方式再次登入)。若使用者選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，則顯示錯誤訊息，訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。，並導回APF0002MM1。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1.系統以確認訊息視窗，提示訊息內容請參考</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>APF訊息表-APF_NO 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。
 2.若選擇是
   2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
   2.2導回SSO登入頁(APF0002MM1)。
 3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之帳號必須於CMD emp檢視表(View)查詢為生效中，若不是則出現錯誤訊息"使用者帳號未生效"，並導回APF0002MM1。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之帳號不得重複登入，如重複登入，以確認訊息視窗，詢問是否清除前次登入並再次登入(即後蓋前方式再次登入)。若使用者選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，則回應「不允許重覆登入」訊息，並導回APF0002MM1。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>如密碼已逾期或為初次登入，系統回應須強制更新密碼。
-1.進行更新密碼作業(系統導向功能APF0301，以浮動視窗顯示在最上層，並遮蔽後方頁面)。
-2.完成變更密碼後，可解除遮蔽並顯示系統主頁面。
-3.若使用者取消變更密碼，則導回APF0002MM1。</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1074,7 +1140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1242,6 +1308,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -1923,6 +1997,129 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,128 +2128,26 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2072,22 +2167,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2117,42 +2200,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2176,9 +2253,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5384,7 +5458,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5398,7 +5472,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -5406,62 +5480,62 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="90"/>
       <c r="B5" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="90"/>
       <c r="B6" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -5576,7 +5650,7 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
@@ -5665,7 +5739,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="53">
         <v>41550</v>
@@ -5805,8 +5879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5820,7 +5894,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
       <c r="M1" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6035,7 +6109,7 @@
     </row>
     <row r="16" spans="1:13" s="63" customFormat="1" ht="186" customHeight="1">
       <c r="A16" s="108" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="102"/>
@@ -6067,7 +6141,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
@@ -6175,8 +6249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6206,7 +6280,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
@@ -6336,7 +6410,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>75</v>
@@ -6373,7 +6447,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="115"/>
       <c r="C10" s="115"/>
@@ -6408,7 +6482,7 @@
         <v>44</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>75</v>
@@ -6422,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="35"/>
@@ -6431,7 +6505,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J12" s="36"/>
     </row>
@@ -6440,22 +6514,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>157</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J13" s="36"/>
     </row>
@@ -6464,22 +6538,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>156</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>157</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J14" s="36"/>
     </row>
@@ -6497,7 +6571,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
@@ -6532,7 +6606,7 @@
         <v>44</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>75</v>
@@ -6546,26 +6620,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="G19" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J19" s="38"/>
     </row>
@@ -6574,26 +6648,26 @@
         <v>2</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="38"/>
     </row>
@@ -6602,29 +6676,29 @@
         <v>3</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="39" t="s">
         <v>121</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="33">
@@ -6632,29 +6706,29 @@
         <v>4</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J22" s="86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6662,23 +6736,23 @@
         <v>5</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6695,7 +6769,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="113"/>
       <c r="C25" s="113"/>
@@ -6730,7 +6804,7 @@
         <v>44</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I26" s="32" t="s">
         <v>75</v>
@@ -6744,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="36"/>
@@ -6753,7 +6827,7 @@
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J27" s="48"/>
     </row>
@@ -6815,7 +6889,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="113"/>
       <c r="C33" s="113"/>
@@ -6850,7 +6924,7 @@
         <v>44</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>75</v>
@@ -6864,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="36"/>
@@ -6873,15 +6947,15 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
       <c r="I35" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="113"/>
       <c r="C38" s="113"/>
@@ -6916,7 +6990,7 @@
         <v>44</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>75</v>
@@ -6930,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="36"/>
@@ -6939,15 +7013,15 @@
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
       <c r="I40" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="113"/>
       <c r="C42" s="113"/>
@@ -6982,7 +7056,7 @@
         <v>44</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>75</v>
@@ -6993,7 +7067,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="113"/>
       <c r="C45" s="113"/>
@@ -7028,7 +7102,7 @@
         <v>44</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I46" s="32" t="s">
         <v>75</v>
@@ -7042,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="36"/>
@@ -7051,7 +7125,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J47" s="48"/>
     </row>
@@ -7060,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="36"/>
@@ -7069,7 +7143,7 @@
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J48" s="48"/>
     </row>
@@ -7148,8 +7222,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7179,7 +7253,7 @@
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L1" s="61"/>
       <c r="M1" s="61"/>
@@ -7227,7 +7301,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:17" s="62" customFormat="1">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="120" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="99"/>
@@ -7253,46 +7327,46 @@
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="1:17" s="63" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
       <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:17" s="63" customFormat="1">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="148"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
       <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:17" s="63" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:17" s="63" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="139" t="s">
-        <v>90</v>
+      <c r="A10" s="120" t="s">
+        <v>89</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -7305,7 +7379,7 @@
       <c r="J10" s="100"/>
     </row>
     <row r="11" spans="1:17" s="65" customFormat="1">
-      <c r="A11" s="152"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
@@ -7629,11 +7703,11 @@
       <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="139" t="s">
-        <v>89</v>
+      <c r="A38" s="120" t="s">
+        <v>88</v>
       </c>
       <c r="B38" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="99"/>
       <c r="D38" s="99"/>
@@ -7645,8 +7719,8 @@
       <c r="J38" s="100"/>
     </row>
     <row r="39" spans="1:10" s="65" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A39" s="152" t="s">
-        <v>162</v>
+      <c r="A39" s="149" t="s">
+        <v>161</v>
       </c>
       <c r="B39" s="93"/>
       <c r="C39" s="93"/>
@@ -7659,7 +7733,7 @@
       <c r="J39" s="94"/>
     </row>
     <row r="40" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="120" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="99"/>
@@ -7673,7 +7747,7 @@
       <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:10" s="65" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="152" t="s">
+      <c r="A41" s="149" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="93"/>
@@ -7687,7 +7761,7 @@
       <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="139" t="s">
+      <c r="A42" s="120" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="99"/>
@@ -7701,144 +7775,144 @@
       <c r="J42" s="100"/>
     </row>
     <row r="43" spans="1:10" s="63" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="157"/>
+      <c r="A43" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="154"/>
     </row>
     <row r="44" spans="1:10" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="153" t="s">
+      <c r="A44" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="155"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="152"/>
     </row>
     <row r="45" spans="1:10" s="63" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="159"/>
-      <c r="F45" s="159"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="160"/>
+      <c r="A45" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="157"/>
     </row>
     <row r="46" spans="1:10" s="63" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="C46" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="119"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="160"/>
     </row>
     <row r="47" spans="1:10" s="63" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="73">
         <v>1</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="122"/>
+        <v>165</v>
+      </c>
+      <c r="C47" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="119"/>
     </row>
     <row r="48" spans="1:10" s="63" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="73">
         <v>2</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="122"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="119"/>
     </row>
     <row r="49" spans="1:12" s="63" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="73">
         <v>3</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="122"/>
+        <v>167</v>
+      </c>
+      <c r="C49" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="119"/>
     </row>
     <row r="50" spans="1:12" s="63" customFormat="1">
-      <c r="A50" s="142"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="144"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="141"/>
     </row>
     <row r="51" spans="1:12" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="153" t="s">
+      <c r="A51" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="155"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
     </row>
     <row r="52" spans="1:12" s="69" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="66" t="s">
@@ -7853,14 +7927,14 @@
       <c r="D52" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="140" t="s">
+      <c r="E52" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="141"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
       <c r="K52" s="63"/>
       <c r="L52" s="63"/>
     </row>
@@ -7871,7 +7945,7 @@
       <c r="B53" s="70"/>
       <c r="C53" s="71"/>
       <c r="D53" s="72"/>
-      <c r="E53" s="135"/>
+      <c r="E53" s="133"/>
       <c r="F53" s="102"/>
       <c r="G53" s="102"/>
       <c r="H53" s="102"/>
@@ -7879,34 +7953,34 @@
       <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="138"/>
+      <c r="A54" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="136"/>
       <c r="K54" s="63"/>
       <c r="L54" s="63"/>
     </row>
-    <row r="55" spans="1:12" s="63" customFormat="1" ht="104.25" customHeight="1">
+    <row r="55" spans="1:12" s="63" customFormat="1" ht="129.75" customHeight="1">
       <c r="A55" s="73">
         <v>1</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="75" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="76"/>
-      <c r="E55" s="135" t="s">
-        <v>168</v>
+      <c r="E55" s="133" t="s">
+        <v>172</v>
       </c>
       <c r="F55" s="102"/>
       <c r="G55" s="102"/>
@@ -7915,28 +7989,28 @@
       <c r="J55" s="102"/>
     </row>
     <row r="56" spans="1:12" s="63" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="132"/>
     </row>
     <row r="57" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="130" t="s">
+      <c r="B57" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="129" t="s">
+      <c r="C57" s="129"/>
+      <c r="D57" s="127" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="93"/>
@@ -7947,22 +8021,22 @@
       <c r="J57" s="94"/>
     </row>
     <row r="58" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="124"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="126"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="124"/>
     </row>
     <row r="59" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="77"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="129"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="93"/>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
@@ -7972,9 +8046,9 @@
     </row>
     <row r="60" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="77"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="129"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="127"/>
       <c r="E60" s="93"/>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
@@ -7983,22 +8057,22 @@
       <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="124"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="126"/>
+      <c r="A61" s="122"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="124"/>
     </row>
     <row r="62" spans="1:12" s="63" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="77"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="129"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
       <c r="E62" s="93"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -8027,7 +8101,7 @@
       <c r="B64" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="127"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="93"/>
       <c r="E64" s="93"/>
       <c r="F64" s="93"/>
@@ -8043,18 +8117,24 @@
       <c r="B65" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="123"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A39:J39"/>
@@ -8063,17 +8143,15 @@
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A56:J56"/>
     <mergeCell ref="E53:J53"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="E55:J55"/>
     <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="C65:J65"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="B59:C59"/>
@@ -8084,12 +8162,8 @@
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A56:J56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8168,7 +8242,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -8220,56 +8294,56 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="181" t="s">
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="181"/>
+      <c r="I5" s="184"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199" t="s">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="201"/>
+      <c r="E6" s="201"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="202"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="163"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
       <c r="E7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
       <c r="I7" s="9" t="s">
         <v>35</v>
       </c>
@@ -8278,17 +8352,17 @@
       <c r="A8" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="171"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
       <c r="I8" s="12" t="s">
         <v>39</v>
       </c>
@@ -8297,17 +8371,17 @@
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
       <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
       <c r="I9" s="12" t="s">
         <v>39</v>
       </c>
@@ -8316,166 +8390,166 @@
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
       <c r="E10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="171" t="s">
+      <c r="F10" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
       <c r="I10" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="166"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="173"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="172" t="s">
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="172" t="s">
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="167">
+      <c r="A14" s="161">
         <v>3</v>
       </c>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="168" t="s">
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="167"/>
-      <c r="B15" s="170" t="s">
+      <c r="A15" s="161"/>
+      <c r="B15" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="176" t="s">
+      <c r="G15" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="177"/>
+      <c r="H15" s="180"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="167"/>
-      <c r="B16" s="171" t="s">
+      <c r="A16" s="161"/>
+      <c r="B16" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="10"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="178" t="s">
+      <c r="G16" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="179"/>
+      <c r="H16" s="182"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="167"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="193"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="167"/>
-      <c r="B18" s="188"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="186"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="167"/>
-      <c r="B19" s="188"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="186"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="194"/>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="167"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="167" t="s">
+      <c r="A20" s="161"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -8484,6 +8558,7 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B17:D17"/>
@@ -8494,6 +8569,9 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="J1:J3"/>
@@ -8509,10 +8587,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -279,12 +279,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. SSO成功登入後驗證使用者是否生效。
-2. 驗證使用者是否需變更密碼。
-3. 登入系統並顯示主畫面。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. 系統依取得的權限資料顯示功能清單。
 2. 系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -643,18 +637,6 @@
 1.進行更新密碼作業(系統導向功能APF0301，以浮動視窗顯示在最上層，並遮蔽後方頁面)。
 2.完成變更密碼後，可解除遮蔽並顯示系統主頁面。
 3.若使用者取消變更密碼，則導回APF0002MM1。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核重覆登入與帳號生/失效驗證
-1.重覆登入檢核，如相同帳號已登入則系統顯示錯誤訊息。
-2.帳號生/失效檢核，如未生效 or 已失效則導回SSO並顯示錯誤訊息。
-更新逾期密碼(2個月) or 初次登入的預設密碼 
-1.密碼逾期回應逾期訊息，且提供更新畫面(功能導向APF0301)
-顯示登入後主要畫面
-1.顯示系統登入驗證視窗(功能導向APF0002)
-2.系統依取得的權限資料顯示功能清單
-3.系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -752,6 +734,43 @@
     <t>IPO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>逾期或是初次登入更新密碼，更新完畢後顯示速達3代登入後主要畫面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">檢核重覆登入與帳號生/失效驗證
+1.重覆登入檢核，如相同帳號已登入則系統顯示錯誤訊息。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">2.帳號生/失效檢核，如未生效 or 已失效則導回SSO並顯示錯誤訊息。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+更新逾期密碼(2個月) or 初次登入的預設密碼 
+1.密碼逾期回應逾期訊息，且提供更新畫面(功能導向APF0301)
+顯示登入後主要畫面
+1.系統依取得的權限資料顯示功能清單
+2.系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -760,7 +779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -897,6 +916,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -1445,14 +1471,44 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1460,21 +1516,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1490,24 +1531,102 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1543,99 +1662,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2694,8 +2720,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2740,13 +2766,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>77</xdr:row>
+          <xdr:row>78</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4326,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4341,7 +4367,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -4349,64 +4375,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4520,7 +4546,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4584,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>18</v>
@@ -4606,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="37">
         <v>41550</v>
@@ -4747,10 +4773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4764,7 +4790,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
       <c r="M1" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4788,255 +4814,248 @@
       <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="89" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="77" t="s">
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+    </row>
+    <row r="12" spans="1:13" s="49" customFormat="1">
+      <c r="A12" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-    </row>
-    <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="85" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
+    </row>
+    <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:13" s="49" customFormat="1">
+      <c r="A14" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-    </row>
-    <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="85" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="93"/>
+      <c r="A16" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="78"/>
+      <c r="A17" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A51:L51"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5050,6 +5069,13 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5075,8 +5101,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5094,13 +5120,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>77</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -5134,8 +5160,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5165,7 +5191,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -5213,94 +5239,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="112"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="A10" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="123"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="67"/>
@@ -5615,216 +5641,216 @@
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
+      <c r="A38" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A39" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
+      <c r="A39" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="79"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="89"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
+      <c r="A43" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="119"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="132"/>
+      <c r="A45" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="125"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="C46" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="135"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="57">
         <v>1</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="136" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="138"/>
+        <v>121</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="99"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="57">
         <v>2</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="136" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="138"/>
+        <v>121</v>
+      </c>
+      <c r="C48" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="99"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="57">
         <v>3</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="138"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="99"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="127"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="140"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="126"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="119"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -5839,14 +5865,14 @@
       <c r="D52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="114" t="s">
+      <c r="E52" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
@@ -5857,26 +5883,26 @@
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
     </row>
     <row r="54" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
+      <c r="A54" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="106"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
@@ -5885,112 +5911,112 @@
         <v>1</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="E55" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
+      <c r="E55" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="107" t="s">
+      <c r="A56" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="109"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="140"/>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="105" t="s">
+      <c r="B57" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="106"/>
-      <c r="D57" s="104" t="s">
+      <c r="C57" s="137"/>
+      <c r="D57" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="79"/>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="101"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="132"/>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="61"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="79"/>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="61"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="78"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="79"/>
     </row>
     <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="99"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="101"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="132"/>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="61"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="79"/>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="62" t="s">
@@ -6013,14 +6039,14 @@
       <c r="B64" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="102"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="79"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="61">
@@ -6029,35 +6055,18 @@
       <c r="B65" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98"/>
-      <c r="I65" s="98"/>
-      <c r="J65" s="98"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="129"/>
+      <c r="I65" s="129"/>
+      <c r="J65" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="K1:K3"/>
@@ -6074,8 +6083,25 @@
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
     <mergeCell ref="E53:J53"/>
-    <mergeCell ref="D57:J57"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6156,7 +6182,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6286,7 +6312,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>43</v>
@@ -6323,7 +6349,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="143"/>
       <c r="C10" s="143"/>
@@ -6358,7 +6384,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>43</v>
@@ -6372,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
@@ -6381,7 +6407,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J12" s="20"/>
     </row>
@@ -6390,22 +6416,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J13" s="20"/>
     </row>
@@ -6414,22 +6440,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -6447,7 +6473,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="143"/>
       <c r="C17" s="143"/>
@@ -6482,7 +6508,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>43</v>
@@ -6496,26 +6522,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -6524,26 +6550,26 @@
         <v>2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F20" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="22"/>
     </row>
@@ -6552,29 +6578,29 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6582,26 +6608,26 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="70"/>
     </row>
@@ -6610,23 +6636,23 @@
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6643,7 +6669,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="141" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="141"/>
       <c r="C25" s="141"/>
@@ -6678,7 +6704,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>43</v>
@@ -6692,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="20"/>
@@ -6701,7 +6727,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -6763,7 +6789,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="141"/>
       <c r="C33" s="141"/>
@@ -6798,7 +6824,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>43</v>
@@ -6812,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="20"/>
@@ -6821,15 +6847,15 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="141"/>
       <c r="C38" s="141"/>
@@ -6864,7 +6890,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>43</v>
@@ -6878,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="20"/>
@@ -6887,15 +6913,15 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="141"/>
       <c r="C42" s="141"/>
@@ -6930,7 +6956,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>43</v>
@@ -6941,7 +6967,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="141"/>
       <c r="C45" s="141"/>
@@ -6976,7 +7002,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>43</v>
@@ -6990,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="20"/>
@@ -6999,7 +7025,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J47" s="32"/>
     </row>
@@ -7008,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="20"/>
@@ -7017,7 +7043,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J48" s="32"/>
     </row>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -770,6 +765,10 @@
 2.系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
     </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1257,7 +1256,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1471,22 +1470,55 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,38 +1530,110 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1540,9 +1644,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1566,102 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2721,7 +2726,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2734,7 +2739,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2742,17 +2747,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2786,7 +2780,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2794,17 +2788,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2816,6 +2799,584 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7169" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7169"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="群組 2"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0001 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>登入主畫面與框架顯示</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳懿信</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131018</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3374,7 +3935,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3382,17 +3943,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3447,7 +3997,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4814,245 +5364,252 @@
       <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="94" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="78" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="78" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="87" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="87" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="78" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A51:L51"/>
@@ -5069,13 +5626,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5142,16 +5692,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="98"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -5160,7 +5760,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C47" sqref="C47:J47"/>
     </sheetView>
   </sheetViews>
@@ -5239,94 +5839,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="112"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="67"/>
@@ -5641,118 +6241,118 @@
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="120" t="s">
+      <c r="A38" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="79"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="131"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="119"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="122"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="125"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="102"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="57" t="s">
@@ -5761,16 +6361,16 @@
       <c r="B46" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="57">
@@ -5779,16 +6379,16 @@
       <c r="B47" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="99"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="57">
@@ -5797,16 +6397,16 @@
       <c r="B48" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="99"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="57">
@@ -5815,42 +6415,42 @@
       <c r="B49" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="99"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="100"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="102"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="136"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="119"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -5865,14 +6465,14 @@
       <c r="D52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="107" t="s">
+      <c r="E52" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
@@ -5883,26 +6483,26 @@
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
     </row>
     <row r="54" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="106"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="140"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
@@ -5917,106 +6517,106 @@
         <v>17</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="138" t="s">
+      <c r="A56" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="140"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="111"/>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="136" t="s">
+      <c r="B57" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="137"/>
-      <c r="D57" s="135" t="s">
+      <c r="C57" s="108"/>
+      <c r="D57" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="79"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="78"/>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="130"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="132"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="126"/>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="61"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="79"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="61"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="79"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="78"/>
     </row>
     <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="130"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="132"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="61"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="79"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="62" t="s">
@@ -6039,14 +6639,14 @@
       <c r="B64" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="133"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="79"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="61">
@@ -6055,22 +6655,27 @@
       <c r="B65" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="129"/>
-      <c r="J65" s="129"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="C65:J65"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="B59:C59"/>
@@ -6081,6 +6686,11 @@
     <mergeCell ref="A61:J61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:J62"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="A6:J9"/>
@@ -6092,16 +6702,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6151,7 +6751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -6270,18 +6870,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6348,18 +6948,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6472,18 +7072,18 @@
       <c r="J15" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
@@ -6668,18 +7268,18 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
@@ -6788,18 +7388,18 @@
       <c r="J31" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="141" t="s">
+      <c r="A33" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
@@ -6854,18 +7454,18 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="141"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
@@ -6920,18 +7520,18 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="141" t="s">
+      <c r="A42" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
@@ -6966,18 +7566,18 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="141" t="s">
+      <c r="A45" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -404,22 +409,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>職稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>時間</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>員編</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>巡覽列</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,10 +421,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>部門名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2(20)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -578,18 +567,6 @@
   <si>
     <t>apf_menu_node</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.前畫面:SSO登入頁(APF0002MM1)
-1.1 SESSION內容:
-  1.1.1 Session1:使用者登入資訊，包含員編、姓名、部門名稱、職稱名稱，作為APF0001MM1_Status來源及系統參數使用。
-  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
-  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
-1.2 成立條件:
-  1.2.1 使用者狀態為生效中。
-  1.2.2 使用者並無重複登入，或選擇清除前次登入。
-  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NO</t>
@@ -769,6 +746,34 @@
   <si>
     <t>回總表</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前畫面:SSO登入頁(APF0002MM1)
+1.1 SESSION內容:
+  1.1.1 Session1:使用者登入資訊，包含員工編號、員工姓名、單位名稱、權限職稱名稱，作為APF0001MM1_Status來源及系統參數使用。
+  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
+  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
+1.2 成立條件:
+  1.2.1 使用者狀態為生效中。
+  1.2.2 使用者並無重複登入，或選擇清除前次登入。
+  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1470,14 +1475,44 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1485,21 +1520,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1515,27 +1535,81 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,75 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2739,7 +2744,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2747,6 +2752,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2780,7 +2796,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2788,6 +2804,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2826,7 +2853,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2834,6 +2861,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3935,7 +3973,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3943,6 +3981,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4953,10 +5002,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
@@ -4968,7 +5017,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
@@ -4978,7 +5027,7 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
@@ -5096,7 +5145,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5325,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
@@ -5340,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
       <c r="M1" s="75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5364,252 +5413,245 @@
       <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="89" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="77" t="s">
+      <c r="A10" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="77" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="93"/>
+      <c r="A16" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A51:L51"/>
@@ -5626,6 +5668,13 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5695,7 +5744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -5703,7 +5752,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="97" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -5760,8 +5809,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:J47"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5791,7 +5840,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -5839,94 +5888,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="67"/>
@@ -6241,216 +6290,216 @@
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="79"/>
+    </row>
+    <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="89"/>
+    </row>
+    <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A41" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
+    </row>
+    <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="89"/>
+    </row>
+    <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A43" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="110"/>
+    </row>
+    <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A44" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
+    </row>
+    <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A45" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
-    </row>
-    <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
-    </row>
-    <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78"/>
-    </row>
-    <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
-    </row>
-    <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="131"/>
-    </row>
-    <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="122"/>
-    </row>
-    <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="102"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="125"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="57" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="105"/>
+        <v>114</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="57">
         <v>1</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
+        <v>116</v>
+      </c>
+      <c r="C47" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="57">
         <v>2</v>
       </c>
       <c r="B48" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="113"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="57">
         <v>3</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
+        <v>118</v>
+      </c>
+      <c r="C49" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="113"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="129"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="136"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="115"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="120" t="s">
+      <c r="A51" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="107"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6465,14 +6514,14 @@
       <c r="D52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="141" t="s">
+      <c r="E52" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
@@ -6483,26 +6532,26 @@
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
     </row>
     <row r="54" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="140"/>
+      <c r="A54" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="102"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
@@ -6517,106 +6566,106 @@
         <v>17</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="E55" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
+      <c r="E55" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="111"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="99" t="s">
+      <c r="C57" s="131"/>
+      <c r="D57" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="79"/>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="124"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="126"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="119"/>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="61"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="79"/>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="61"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="78"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="79"/>
     </row>
     <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="124"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="126"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="119"/>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="61"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="79"/>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="62" t="s">
@@ -6639,14 +6688,14 @@
       <c r="B64" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="127"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="79"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="61">
@@ -6655,37 +6704,17 @@
       <c r="B65" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="123"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6702,6 +6731,26 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6751,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6782,7 +6831,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="75" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6912,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>43</v>
@@ -6949,7 +6998,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="144" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="145"/>
       <c r="C10" s="145"/>
@@ -6984,7 +7033,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>43</v>
@@ -6998,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
@@ -7007,7 +7056,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J12" s="20"/>
     </row>
@@ -7016,22 +7065,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J13" s="20"/>
     </row>
@@ -7040,22 +7089,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -7073,7 +7122,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="144" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="145"/>
       <c r="C17" s="145"/>
@@ -7108,7 +7157,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>43</v>
@@ -7122,16 +7171,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>69</v>
@@ -7141,7 +7190,7 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -7150,16 +7199,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>71</v>
@@ -7169,7 +7218,7 @@
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J20" s="22"/>
     </row>
@@ -7178,29 +7227,29 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7208,26 +7257,26 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J22" s="70"/>
     </row>
@@ -7236,23 +7285,23 @@
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7269,7 +7318,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="143" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B25" s="143"/>
       <c r="C25" s="143"/>
@@ -7304,7 +7353,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>43</v>
@@ -7318,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="20"/>
@@ -7327,7 +7376,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -7389,7 +7438,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="143" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="143"/>
       <c r="C33" s="143"/>
@@ -7424,7 +7473,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>43</v>
@@ -7438,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="20"/>
@@ -7447,15 +7496,15 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="143" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B38" s="143"/>
       <c r="C38" s="143"/>
@@ -7490,7 +7539,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>43</v>
@@ -7504,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="20"/>
@@ -7513,15 +7562,15 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="143" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B42" s="143"/>
       <c r="C42" s="143"/>
@@ -7556,7 +7605,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>43</v>
@@ -7567,7 +7616,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="143" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B45" s="143"/>
       <c r="C45" s="143"/>
@@ -7602,7 +7651,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>43</v>
@@ -7616,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="20"/>
@@ -7625,7 +7674,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J47" s="32"/>
     </row>
@@ -7634,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="20"/>
@@ -7643,7 +7692,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J48" s="32"/>
     </row>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -1475,22 +1475,55 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,45 +1535,126 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,120 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2730,8 +2730,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2776,13 +2776,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>78</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5372,10 +5372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5413,248 +5413,255 @@
       <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="94" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="89"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="78" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="78" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="87" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="87" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="78" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:13" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="1:13" s="47" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="77" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="78"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:L52"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5668,13 +5675,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5700,8 +5700,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5719,13 +5719,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>52</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>79</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -5888,94 +5888,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="135"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="67"/>
@@ -6290,118 +6290,118 @@
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="129" t="s">
+      <c r="A38" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A39" s="142" t="s">
+      <c r="A39" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="79"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="129" t="s">
+      <c r="A40" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="79"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="110"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="131"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="122"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="125"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="102"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="57" t="s">
@@ -6410,16 +6410,16 @@
       <c r="B46" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="105"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="57">
@@ -6428,16 +6428,16 @@
       <c r="B47" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="57">
@@ -6446,16 +6446,16 @@
       <c r="B48" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="111" t="s">
+      <c r="C48" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="113"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="57">
@@ -6464,42 +6464,42 @@
       <c r="B49" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="111" t="s">
+      <c r="C49" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="113"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="108"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="115"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="136"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="107"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6514,14 +6514,14 @@
       <c r="D52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
@@ -6532,26 +6532,26 @@
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
     </row>
     <row r="54" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="100" t="s">
+      <c r="A54" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="102"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="140"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
@@ -6566,106 +6566,106 @@
         <v>17</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="E55" s="99" t="s">
+      <c r="E55" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="111"/>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="130" t="s">
+      <c r="B57" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="122" t="s">
+      <c r="C57" s="108"/>
+      <c r="D57" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="79"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="78"/>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="117"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="119"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="126"/>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="61"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="79"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="78"/>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="61"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="79"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="78"/>
     </row>
     <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="117"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="119"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="126"/>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="61"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="79"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="62" t="s">
@@ -6688,14 +6688,14 @@
       <c r="B64" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="120"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="79"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="78"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="61">
@@ -6704,17 +6704,37 @@
       <c r="B65" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6731,26 +6751,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6800,7 +6800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -163,29 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目名稱</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -226,10 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -259,10 +232,6 @@
   </si>
   <si>
     <t>Global 參數</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -605,10 +574,85 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>欄位_APF0001MM1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0001MM1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique.org_id = org.org_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
+2.若選擇是
+  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
+  2.2導回SSO登入頁(APF0002MM1)。
+3.若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期或是初次登入更新密碼，更新完畢後顯示速達3代登入後主要畫面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>如密碼已逾期或為初次登入，系統回應須強制更新密碼。
 1.進行更新密碼作業(系統導向功能APF0301，以浮動視窗顯示在最上層，並遮蔽後方頁面)。
 2.完成變更密碼後，可解除遮蔽並顯示系統主頁面。
 3.若使用者取消變更密碼，則導回APF0002MM1。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:SSO登入頁(APF0002MM1)
+1.1 SESSION內容:
+  1.1.1 Session1:使用者登入資訊，包含使用者識別值(Sid)、員工編號、員工姓名、單位代號、單位名稱、權限職稱代號、權限職稱名稱、所有隸屬角色識別值(預設角色、職稱角色、自訂角色)、密碼變更狀態，作為APF0001MM1_Status來源及系統參數使用。
+  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
+  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
+1.2 成立條件:
+  1.2.1 使用者狀態為生效中。
+  1.2.2 使用者並無重複登入，或選擇清除前次登入。
+  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -618,6 +662,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <u/>
         <sz val="12"/>
         <rFont val="標楷體"/>
@@ -628,6 +673,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="12"/>
         <rFont val="標楷體"/>
         <family val="4"/>
@@ -638,141 +684,41 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>輸入之帳號不得重複登入，如重複登入，以確認訊息視窗，詢問是否清除前次登入並再次登入(即後蓋前方式再次登入)。若使用者選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，則顯示錯誤訊息，訊息內容請參考</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>APF訊息表-APF_NO 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。，並導回APF0002MM1。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>欄位_APF0001MM1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0001MM1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>員工編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vw_emp_unique</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>org</t>
+    <t>3.2.2 如使用者重複登入，顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 6，並詢問是否清除前次登入並再次登入(即後蓋前方式再次登入)。若選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，清除APF登入Session，系統呼叫SSO Logout Function，使token狀態改為失效，系統導回SSO登入畫面(APF0002MM1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>org_name</t>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique.org_id = org.org_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
-2.若選擇是
-  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
-  2.2導回SSO登入頁(APF0002MM1)。
-3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期或是初次登入更新密碼，更新完畢後顯示速達3代登入後主要畫面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">檢核重覆登入與帳號生/失效驗證
-1.重覆登入檢核，如相同帳號已登入則系統顯示錯誤訊息。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">2.帳號生/失效檢核，如未生效 or 已失效則導回SSO並顯示錯誤訊息。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-更新逾期密碼(2個月) or 初次登入的預設密碼 
-1.密碼逾期回應逾期訊息，且提供更新畫面(功能導向APF0301)
-顯示登入後主要畫面
-1.系統依取得的權限資料顯示功能清單
-2.系統依web.config設定顯示其餘區塊資訊(ex:異常警示)</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.前畫面:SSO登入頁(APF0002MM1)
-1.1 SESSION內容:
-  1.1.1 Session1:使用者登入資訊，包含員工編號、員工姓名、單位名稱、權限職稱名稱，作為APF0001MM1_Status來源及系統參數使用。
-  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
-  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
-1.2 成立條件:
-  1.2.1 使用者狀態為生效中。
-  1.2.2 使用者並無重複登入，或選擇清除前次登入。
-  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱名稱</t>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -918,15 +864,16 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <strike/>
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
+      <b/>
       <strike/>
+      <u/>
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -1261,7 +1208,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1463,6 +1410,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,12 +1428,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1490,21 +1467,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1520,27 +1482,90 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,75 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2724,14 +2680,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2776,14 +2732,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4071,7 +4027,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12011025" cy="609600"/>
+          <a:ext cx="12677775" cy="609600"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4965,107 +4921,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>67</v>
+      <c r="A5" s="76" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5144,8 +5100,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="75" t="s">
-        <v>110</v>
+      <c r="E1" s="77" t="s">
+        <v>106</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5167,7 +5123,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="76"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5181,7 +5137,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="76"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5209,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>18</v>
@@ -5231,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="37">
         <v>41550</v>
@@ -5372,10 +5328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5388,15 +5344,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="75" t="s">
-        <v>110</v>
+      <c r="M1" s="77" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="76"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="76"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" s="71" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="72"/>
@@ -5413,268 +5369,234 @@
       <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
+    </row>
+    <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
-    </row>
-    <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
+    </row>
+    <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+    </row>
+    <row r="12" spans="1:13" s="49" customFormat="1">
+      <c r="A12" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
-    </row>
-    <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
+    </row>
+    <row r="14" spans="1:13" s="49" customFormat="1">
+      <c r="A14" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="77" t="s">
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-    </row>
-    <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-    </row>
-    <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-    </row>
-    <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="85" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" spans="1:13" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
-    </row>
-    <row r="16" spans="1:13" s="47" customFormat="1" ht="186" customHeight="1">
-      <c r="A16" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="93"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="79" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="78"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="78"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
+  <mergeCells count="21">
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A57:L57"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:L14"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A15:L15"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5694,14 +5616,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5719,14 +5641,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>52</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5752,7 +5674,7 @@
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
       <c r="P1" s="97" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="16:16">
@@ -5809,8 +5731,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:J39"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5839,8 +5761,8 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="75" t="s">
-        <v>110</v>
+      <c r="K1" s="77" t="s">
+        <v>106</v>
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -5860,7 +5782,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="76"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="21"/>
@@ -5873,7 +5795,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="76"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="21"/>
@@ -5888,94 +5810,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="A5" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="144"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="A10" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="67"/>
@@ -6290,238 +6212,238 @@
       <c r="J37" s="69"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
-    </row>
-    <row r="39" spans="1:10" s="49" customFormat="1" ht="157.5" customHeight="1">
-      <c r="A39" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
+      <c r="A38" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
+    </row>
+    <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
+      <c r="A39" s="145" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="119" t="s">
+      <c r="A41" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="85"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="88"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="131"/>
+      <c r="A43" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="110"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="122"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="102"/>
+      <c r="A45" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="128"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="105"/>
+        <v>110</v>
+      </c>
+      <c r="C46" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="131"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
-      <c r="A47" s="57">
+      <c r="A47" s="74">
         <v>1</v>
       </c>
-      <c r="B47" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
+      <c r="B47" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="57">
         <v>2</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
+        <v>112</v>
+      </c>
+      <c r="C48" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="118"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="57">
         <v>3</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
+        <v>114</v>
+      </c>
+      <c r="C49" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="118"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="129"/>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="136"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="115"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
+      <c r="A51" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="107"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="E52" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
@@ -6532,26 +6454,26 @@
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
     </row>
     <row r="54" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="140"/>
+      <c r="A54" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="102"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
@@ -6560,112 +6482,112 @@
         <v>1</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="60"/>
-      <c r="E55" s="137" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
+      <c r="E55" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
     </row>
     <row r="56" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="111"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="137"/>
     </row>
     <row r="57" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="108"/>
-      <c r="D57" s="99" t="s">
+      <c r="C57" s="134"/>
+      <c r="D57" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="78"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="85"/>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="124"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="126"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122"/>
     </row>
     <row r="59" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="61"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="78"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="85"/>
     </row>
     <row r="60" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="61"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="78"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="85"/>
     </row>
     <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="124"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="126"/>
+      <c r="A61" s="120"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122"/>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="61"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="78"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="85"/>
     </row>
     <row r="63" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="62" t="s">
@@ -6688,14 +6610,14 @@
       <c r="B64" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="127"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="78"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="85"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="61">
@@ -6704,37 +6626,17 @@
       <c r="B65" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="123"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6751,6 +6653,26 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6800,8 +6722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6810,10 +6732,11 @@
     <col min="2" max="2" width="16.75" style="15" customWidth="1"/>
     <col min="3" max="3" width="20.875" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="15" customWidth="1"/>
-    <col min="6" max="7" width="14.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="11" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="15" customWidth="1"/>
     <col min="10" max="10" width="34.75" style="15" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="15"/>
@@ -6830,8 +6753,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="75" t="s">
-        <v>110</v>
+      <c r="K1" s="77" t="s">
+        <v>106</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6857,7 +6780,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="76"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6875,7 +6798,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="76"/>
+      <c r="K3" s="78"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6919,18 +6842,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="144" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
+      <c r="A6" s="147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6949,7 +6872,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -6961,10 +6884,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6997,31 +6920,31 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="144" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="A10" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -7033,10 +6956,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -7047,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
@@ -7056,7 +6979,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J12" s="20"/>
     </row>
@@ -7065,22 +6988,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J13" s="20"/>
     </row>
@@ -7089,22 +7012,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -7121,18 +7044,18 @@
       <c r="J15" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="144" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
+      <c r="A17" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="149"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
@@ -7142,10 +7065,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>21</v>
@@ -7157,40 +7080,40 @@
         <v>15</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="22">
+      <c r="A19" s="17">
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>85</v>
+        <v>133</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>81</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -7199,84 +7122,84 @@
         <v>2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="22">
+      <c r="A21" s="17">
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="22">
+      <c r="A22" s="17">
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J22" s="70"/>
     </row>
@@ -7285,23 +7208,23 @@
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7317,18 +7240,18 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
+      <c r="A25" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
@@ -7338,10 +7261,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -7353,10 +7276,10 @@
         <v>15</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>0</v>
@@ -7367,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="20"/>
@@ -7376,7 +7299,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -7437,18 +7360,18 @@
       <c r="J31" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
+      <c r="A33" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
@@ -7458,10 +7381,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>21</v>
@@ -7473,10 +7396,10 @@
         <v>15</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>0</v>
@@ -7487,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="20"/>
@@ -7496,25 +7419,25 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
+      <c r="A38" s="146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="146"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
@@ -7524,10 +7447,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>21</v>
@@ -7539,10 +7462,10 @@
         <v>15</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>0</v>
@@ -7553,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="20"/>
@@ -7562,25 +7485,25 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
+      <c r="A42" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
@@ -7590,10 +7513,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>21</v>
@@ -7605,28 +7528,28 @@
         <v>15</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
+      <c r="A45" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">
@@ -7636,10 +7559,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
@@ -7651,10 +7574,10 @@
         <v>15</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>0</v>
@@ -7665,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="20"/>
@@ -7674,7 +7597,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J47" s="32"/>
     </row>
@@ -7683,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="20"/>
@@ -7692,7 +7615,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J48" s="32"/>
     </row>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" tabRatio="588" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="8475" windowHeight="4695" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0001MM1!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0001MM1!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="166">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -601,14 +601,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
-2.若選擇是
-  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
-  2.2導回SSO登入頁(APF0002MM1)。
-3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -641,18 +633,6 @@
 1.進行更新密碼作業(系統導向功能APF0301，以浮動視窗顯示在最上層，並遮蔽後方頁面)。
 2.完成變更密碼後，可解除遮蔽並顯示系統主頁面。
 3.若使用者取消變更密碼，則導回APF0002MM1。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:SSO登入頁(APF0002MM1)
-1.1 SESSION內容:
-  1.1.1 Session1:使用者登入資訊，包含使用者識別值(Sid)、員工編號、員工姓名、單位代號、單位名稱、權限職稱代號、權限職稱名稱、所有隸屬角色識別值(預設角色、職稱角色、自訂角色)、密碼變更狀態，作為APF0001MM1_Status來源及系統參數使用。
-  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
-  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
-1.2 成立條件:
-  1.2.1 使用者狀態為生效中。
-  1.2.2 使用者並無重複登入，或選擇清除前次登入。
-  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -720,6 +700,128 @@
   <si>
     <t>輸入/輸出/必填</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>『APF0001MM1』
+Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_Layout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HomeController.Index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>netId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得SSO帳號密碼正確登入後之憑證</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PermissionManager.GetPermissionsByRoles</t>
+  </si>
+  <si>
+    <t>Rids</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得[PermissionList]權限清單</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HomeController.HeaderLoader</t>
+  </si>
+  <si>
+    <t>AccountId</t>
+  </si>
+  <si>
+    <t>取得APF0001MM1_Status之資訊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method
+2.產生[account]SSOAccountState Object
+3.判斷[account]Object是否為null，若非null則產生[Session["LoginAccount"]]Session，若為null則導回登入頁
+4.產生[PermissionManager]APFPermissionManager Object
+5.呼叫[PermissionManager.GetPermissionsByRoles]Method
+6.呼叫[HomeController.HeaderLoader]Method
+7.APF0001MM1_Menu透過Javascript呼叫[APFMenuController.GetMenuTreeByRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuController.GetMenuTreeByRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MenuUIHelper.ToJSON</t>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[MenuUIHelper.ToJSON]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[APFMenuManager.GetMenuByRoles]method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuManager.GetMenuByRoles</t>
+  </si>
+  <si>
+    <t>取得APFMenu物件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0001MM1_Status
+2.開啟APF0001MM1_Menu
+3.開啟APF0001MM1_Tab
+4.開啟APF0001MM1_Content開啟首頁頁籤
+5.開啟APF0001MM1_Path顯示目前頁籤路徑
+6.開啟APF0001MM1_Marquee
+7.開啟APF0001MM1_Msg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
+2.若選擇是
+  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
+  2.2導回SSO登入頁(APF0002MM1)。
+3.若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AccountController.Logout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[CasAuthentication.SingleSignOut]Method
+2.清除Session呼叫[Session.Clear]Method
+3.導回APF首頁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:SSO登入頁(APF0002MM1)
+1.1 SESSION內容:
+  1.1.1 Session1:使用者登入資訊，包含使用者識別值(Sid)、員工編號、員工姓名、單位代號、單位名稱、權限職稱代號、權限職稱名稱、所有隸屬角色識別值(預設角色、職稱角色、自訂角色)、密碼變更狀態，作為APF0001MM1_Status來源及系統參數使用。
+  1.2.2 Session2:使用者所有功能清單權限，包含每支功能清單的CRUDO(新增、查詢、修改、刪除、匯出)。
+  1.2.3 Session3:各模組的操作Timeout Session，作為各模組的Session Timeout依據。
+1.2 成立條件:
+  1.2.1 使用者狀態為生效中。
+  1.2.2 使用者並無重複登入，或選擇清除前次登入。
+  1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1208,7 +1310,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1353,280 +1455,304 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,9 +2811,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2732,13 +2858,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>57</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>79</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3395,7 +3521,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="9458325" cy="590550"/>
+          <a:ext cx="10344150" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3914,7 +4040,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3963,8 +4089,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>18568</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151918</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1914525</xdr:rowOff>
     </xdr:to>
@@ -4921,12 +5047,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -4958,10 +5084,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
@@ -4969,7 +5095,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4981,7 +5107,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="76"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="6" t="s">
         <v>115</v>
       </c>
@@ -4991,37 +5117,37 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="76"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="76"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="76"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="76"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5100,7 +5226,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="75" t="s">
         <v>106</v>
       </c>
       <c r="F1" s="13"/>
@@ -5123,7 +5249,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="78"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5137,7 +5263,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="78"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5328,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5344,241 +5470,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="75" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="78"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="78"/>
-    </row>
-    <row r="4" spans="1:13" s="71" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="M3" s="76"/>
+    </row>
+    <row r="4" spans="1:13" s="67" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="94" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84" t="s">
+      <c r="A10" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="86" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="86" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="89" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="85"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A54:L54"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5592,11 +5723,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5622,7 +5748,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -5641,13 +5767,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>79</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -5673,15 +5799,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="97" t="s">
-        <v>126</v>
+      <c r="P1" s="95" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="98"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="98"/>
+      <c r="P3" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5729,17 +5855,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:J49"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="45" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="45" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="45" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="45" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="45" customWidth="1"/>
@@ -5761,7 +5887,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="75" t="s">
         <v>106</v>
       </c>
       <c r="L1" s="45"/>
@@ -5782,7 +5908,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="78"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="21"/>
@@ -5795,7 +5921,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="78"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="21"/>
@@ -5810,618 +5936,618 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="138"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="144"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="145"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:17" s="49" customFormat="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:17" s="49" customFormat="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:17" s="49" customFormat="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:17" s="49" customFormat="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" s="49" customFormat="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" s="49" customFormat="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" s="49" customFormat="1">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" s="49" customFormat="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" s="49" customFormat="1">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" s="49" customFormat="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" s="49" customFormat="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" s="49" customFormat="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" s="49" customFormat="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" s="49" customFormat="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" s="49" customFormat="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" s="49" customFormat="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" s="49" customFormat="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" s="49" customFormat="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" s="49" customFormat="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" s="49" customFormat="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="69"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" s="49" customFormat="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="69"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" s="49" customFormat="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="69"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" s="49" customFormat="1">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="69"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" s="49" customFormat="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" s="49" customFormat="1">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="88"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="145" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="A39" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="88"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="145" t="s">
+      <c r="A41" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
+      <c r="J42" s="84"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="110"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="132"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="120"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="126" t="s">
+      <c r="A45" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="128"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="131"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="103"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
-      <c r="A47" s="74">
+      <c r="A47" s="70">
         <v>1</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
+      <c r="C47" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="135"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A48" s="57">
+      <c r="A48" s="56">
         <v>2</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="118"/>
+      <c r="C48" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="140"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A49" s="57">
+      <c r="A49" s="56">
         <v>3</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="118"/>
+      <c r="C49" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="140"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="108"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="115"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="137"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="107"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="120"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6436,214 +6562,406 @@
       <c r="D52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
-    <row r="53" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="54">
+    <row r="53" spans="1:12" s="53" customFormat="1" ht="122.25" customHeight="1">
+      <c r="A53" s="144">
         <v>1</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-    </row>
-    <row r="54" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="101"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="102"/>
+      <c r="B53" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="E53" s="141" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+    </row>
+    <row r="54" spans="1:12" s="53" customFormat="1" ht="193.5" customHeight="1">
+      <c r="A54" s="145"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="55"/>
+      <c r="E54" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
-    <row r="55" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A55" s="57">
+    <row r="55" spans="1:12" s="53" customFormat="1" ht="49.5">
+      <c r="A55" s="145"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+    </row>
+    <row r="56" spans="1:12" s="53" customFormat="1" ht="33">
+      <c r="A56" s="145"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+    </row>
+    <row r="57" spans="1:12" s="53" customFormat="1">
+      <c r="A57" s="145"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+    </row>
+    <row r="58" spans="1:12" s="53" customFormat="1" ht="33">
+      <c r="A58" s="145"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="55"/>
+      <c r="E58" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="146"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+    </row>
+    <row r="59" spans="1:12" s="53" customFormat="1">
+      <c r="A59" s="145"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="146"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="147"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="1:12" s="53" customFormat="1">
+      <c r="A60" s="145"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+    </row>
+    <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="152"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+    </row>
+    <row r="62" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
+      <c r="A62" s="144">
         <v>1</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B62" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C62" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-    </row>
-    <row r="56" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="135" t="s">
+      <c r="D62" s="71"/>
+      <c r="E62" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="147"/>
+    </row>
+    <row r="63" spans="1:12" s="47" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A63" s="150"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="71"/>
+      <c r="E63" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="147"/>
+    </row>
+    <row r="64" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="137"/>
-    </row>
-    <row r="57" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="61" t="s">
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="109"/>
+    </row>
+    <row r="65" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B65" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="125" t="s">
+      <c r="C65" s="106"/>
+      <c r="D65" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="85"/>
-    </row>
-    <row r="58" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="120"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="122"/>
-    </row>
-    <row r="59" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="123"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="85"/>
-    </row>
-    <row r="60" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="123"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="85"/>
-    </row>
-    <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="120"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="122"/>
-    </row>
-    <row r="62" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="85"/>
-    </row>
-    <row r="63" spans="1:12" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="62" t="s">
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="78"/>
+    </row>
+    <row r="66" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="124"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="126"/>
+    </row>
+    <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="57"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="78"/>
+    </row>
+    <row r="68" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="57"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="78"/>
+    </row>
+    <row r="69" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="124"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="126"/>
+    </row>
+    <row r="70" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A70" s="57"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="128"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="78"/>
+    </row>
+    <row r="71" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="65"/>
-    </row>
-    <row r="64" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="61">
+      <c r="B71" s="59"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="61"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="57">
         <v>1</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B72" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="123"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="85"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="61">
+      <c r="C72" s="127"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="128"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="57">
         <v>2</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B73" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="119"/>
+      <c r="C73" s="121"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D57:J57"/>
+  <mergeCells count="48">
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="D65:J65"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A44:J44"/>
@@ -6653,26 +6971,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6702,7 +7000,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -6722,7 +7020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -6753,7 +7051,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="75" t="s">
         <v>106</v>
       </c>
       <c r="L1" s="13"/>
@@ -6780,7 +7078,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="78"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6798,7 +7096,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="78"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6842,18 +7140,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6872,7 +7170,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -6887,7 +7185,7 @@
         <v>107</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6920,18 +7218,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6941,10 +7239,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -6959,7 +7257,7 @@
         <v>107</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -7044,18 +7342,18 @@
       <c r="J15" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="157"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
@@ -7065,10 +7363,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>21</v>
@@ -7083,7 +7381,7 @@
         <v>107</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>0</v>
@@ -7094,9 +7392,9 @@
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="69" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -7122,7 +7420,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>82</v>
@@ -7150,7 +7448,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>83</v>
@@ -7171,7 +7469,7 @@
       <c r="I21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="66" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7180,7 +7478,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>86</v>
@@ -7189,7 +7487,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>84</v>
@@ -7201,7 +7499,7 @@
       <c r="I22" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="17">
@@ -7240,18 +7538,18 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
@@ -7261,10 +7559,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -7279,7 +7577,7 @@
         <v>107</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>0</v>
@@ -7360,18 +7658,18 @@
       <c r="J31" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
@@ -7381,10 +7679,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>21</v>
@@ -7399,7 +7697,7 @@
         <v>107</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>0</v>
@@ -7426,18 +7724,18 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
@@ -7447,10 +7745,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>21</v>
@@ -7465,7 +7763,7 @@
         <v>107</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>0</v>
@@ -7492,18 +7790,18 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
@@ -7513,10 +7811,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>21</v>
@@ -7531,25 +7829,25 @@
         <v>107</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="154"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">
@@ -7559,10 +7857,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
@@ -7577,7 +7875,7 @@
         <v>107</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>0</v>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -672,10 +672,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3.2.2 如使用者重複登入，顯示錯誤訊息，訊息內容請參考APF訊息表-APF_NO 6，並詢問是否清除前次登入並再次登入(即後蓋前方式再次登入)。若選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，清除APF登入Session，系統呼叫SSO Logout Function，使token狀態改為失效，系統導回SSO登入畫面(APF0002MM1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UI控制項代號</t>
   </si>
   <si>
@@ -821,6 +817,11 @@
   1.2.1 使用者狀態為生效中。
   1.2.2 使用者並無重複登入，或選擇清除前次登入。
   1.2.3 使用者已設定密碼，且密碼並無逾期。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.2.2 如使用者重複登入，顯示confirm視窗提示，訊息內容請參考APF訊息表-APF_NO 6。
+若選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，清除APF登入Session，系統呼叫SSO Logout Function，使token狀態改為失效，系統導回SSO登入畫面(APF0002MM1)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1524,12 +1525,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1539,21 +1564,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1569,15 +1579,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1587,6 +1588,114 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1645,114 +1754,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,9 +2812,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5456,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5495,218 +5496,213 @@
       <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="89" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="77" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="77" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="77" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="78"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A54:L54"/>
@@ -5723,6 +5719,11 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5857,8 +5858,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5936,94 +5937,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="94"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="152"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="63"/>
@@ -6338,118 +6339,118 @@
       <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="86"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="78"/>
+      <c r="A39" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="78"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="132"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="116"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="120"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="109"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="136"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="56" t="s">
@@ -6458,16 +6459,16 @@
       <c r="B46" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="103"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="139"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="70">
@@ -6476,16 +6477,16 @@
       <c r="B47" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="133" t="s">
+      <c r="C47" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="135"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="119"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="56">
@@ -6494,16 +6495,16 @@
       <c r="B48" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="140"/>
+      <c r="C48" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="124"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="56">
@@ -6512,42 +6513,42 @@
       <c r="B49" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="138" t="s">
+      <c r="C49" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="140"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="124"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="130"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="137"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="121"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="118" t="s">
+      <c r="A51" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="120"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6562,196 +6563,196 @@
       <c r="D52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="148" t="s">
+      <c r="E52" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="149"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="149"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
     <row r="53" spans="1:12" s="53" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A53" s="144">
+      <c r="A53" s="100">
         <v>1</v>
       </c>
-      <c r="B53" s="142" t="s">
+      <c r="B53" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="54" t="s">
-        <v>142</v>
-      </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
+      <c r="E53" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
     </row>
     <row r="54" spans="1:12" s="53" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A54" s="145"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
+      <c r="E54" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" s="53" customFormat="1" ht="49.5">
-      <c r="A55" s="145"/>
-      <c r="B55" s="143"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="112"/>
       <c r="C55" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="E55" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="141" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A56" s="145"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="112"/>
       <c r="C56" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="E56" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="141" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:12" s="53" customFormat="1">
-      <c r="A57" s="145"/>
-      <c r="B57" s="143"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="E57" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A58" s="145"/>
-      <c r="B58" s="143"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="146"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="147"/>
+        <v>156</v>
+      </c>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="99"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
     </row>
     <row r="59" spans="1:12" s="53" customFormat="1">
-      <c r="A59" s="145"/>
-      <c r="B59" s="143"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="55" t="s">
-        <v>156</v>
-      </c>
       <c r="E59" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="147"/>
+        <v>157</v>
+      </c>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="99"/>
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
     </row>
     <row r="60" spans="1:12" s="53" customFormat="1">
-      <c r="A60" s="145"/>
-      <c r="B60" s="143"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="112"/>
       <c r="C60" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="147"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="99"/>
       <c r="K60" s="47"/>
       <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="151" t="s">
+      <c r="A61" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="152"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="153"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="104"/>
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
     </row>
     <row r="62" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A62" s="144">
+      <c r="A62" s="100">
         <v>1</v>
       </c>
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="100" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="72" t="s">
@@ -6759,121 +6760,121 @@
       </c>
       <c r="D62" s="71"/>
       <c r="E62" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="63" spans="1:12" s="47" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A63" s="101"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="72" t="s">
         <v>162</v>
-      </c>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="147"/>
-    </row>
-    <row r="63" spans="1:12" s="47" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A63" s="150"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="72" t="s">
-        <v>163</v>
       </c>
       <c r="D63" s="71"/>
       <c r="E63" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="147"/>
+        <v>163</v>
+      </c>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="99"/>
     </row>
     <row r="64" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="107" t="s">
+      <c r="A64" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="109"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="145"/>
     </row>
     <row r="65" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="105" t="s">
+      <c r="B65" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="106"/>
+      <c r="C65" s="142"/>
       <c r="D65" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="78"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="83"/>
     </row>
     <row r="66" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="124"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="126"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="129"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="130"/>
     </row>
     <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="57"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="128"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="132"/>
       <c r="D67" s="97"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="78"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="82"/>
+      <c r="J67" s="83"/>
     </row>
     <row r="68" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="57"/>
-      <c r="B68" s="127"/>
-      <c r="C68" s="128"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="132"/>
       <c r="D68" s="97"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="78"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="83"/>
     </row>
     <row r="69" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="124"/>
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="126"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="129"/>
+      <c r="I69" s="129"/>
+      <c r="J69" s="130"/>
     </row>
     <row r="70" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A70" s="57"/>
-      <c r="B70" s="127"/>
-      <c r="C70" s="128"/>
+      <c r="B70" s="131"/>
+      <c r="C70" s="132"/>
       <c r="D70" s="97"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="78"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+      <c r="J70" s="83"/>
     </row>
     <row r="71" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="58" t="s">
@@ -6896,14 +6897,14 @@
       <c r="B72" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="127"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="129"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="129"/>
-      <c r="J72" s="128"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="132"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="57">
@@ -6912,49 +6913,17 @@
       <c r="B73" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="121"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="123"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
     <mergeCell ref="D65:J65"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6971,6 +6940,38 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="A61:J61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7170,7 +7171,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -7185,7 +7186,7 @@
         <v>107</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -7239,10 +7240,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -7257,7 +7258,7 @@
         <v>107</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -7363,10 +7364,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>21</v>
@@ -7381,7 +7382,7 @@
         <v>107</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>0</v>
@@ -7559,10 +7560,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -7577,7 +7578,7 @@
         <v>107</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>0</v>
@@ -7679,10 +7680,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>21</v>
@@ -7697,7 +7698,7 @@
         <v>107</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>0</v>
@@ -7745,10 +7746,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>21</v>
@@ -7763,7 +7764,7 @@
         <v>107</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>0</v>
@@ -7811,10 +7812,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>21</v>
@@ -7829,7 +7830,7 @@
         <v>107</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>0</v>
@@ -7857,10 +7858,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
@@ -7875,7 +7876,7 @@
         <v>107</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>0</v>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="8475" windowHeight="4695" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="8475" windowHeight="4695" tabRatio="588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0001MM1!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0001MM1!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="172">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -285,10 +285,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>『登出』</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -492,10 +488,6 @@
   <si>
     <t>跑馬燈</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0001MM1_Status</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>功能清單</t>
@@ -698,114 +690,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>『APF0001MM1』
-Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_Layout</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HomeController.Index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>netId</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得SSO帳號密碼正確登入後之憑證</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PermissionManager.GetPermissionsByRoles</t>
   </si>
   <si>
-    <t>Rids</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得[PermissionList]權限清單</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HomeController.HeaderLoader</t>
   </si>
   <si>
     <t>AccountId</t>
   </si>
   <si>
-    <t>取得APF0001MM1_Status之資訊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method
-2.產生[account]SSOAccountState Object
-3.判斷[account]Object是否為null，若非null則產生[Session["LoginAccount"]]Session，若為null則導回登入頁
-4.產生[PermissionManager]APFPermissionManager Object
-5.呼叫[PermissionManager.GetPermissionsByRoles]Method
-6.呼叫[HomeController.HeaderLoader]Method
-7.APF0001MM1_Menu透過Javascript呼叫[APFMenuController.GetMenuTreeByRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFMenuController.GetMenuTreeByRole</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MenuUIHelper.ToJSON</t>
   </si>
   <si>
-    <t>menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[MenuUIHelper.ToJSON]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[APFMenuManager.GetMenuByRoles]method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APFMenuManager.GetMenuByRoles</t>
-  </si>
-  <si>
-    <t>取得APFMenu物件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.開啟APF0001MM1_Status
-2.開啟APF0001MM1_Menu
-3.開啟APF0001MM1_Tab
-4.開啟APF0001MM1_Content開啟首頁頁籤
-5.開啟APF0001MM1_Path顯示目前頁籤路徑
-6.開啟APF0001MM1_Marquee
-7.開啟APF0001MM1_Msg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
-2.若選擇是
-  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
-  2.2導回SSO登入頁(APF0002MM1)。
-3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AccountController.Logout</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[CasAuthentication.SingleSignOut]Method
-2.清除Session呼叫[Session.Clear]Method
-3.導回APF首頁</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.前畫面:SSO登入頁(APF0002MM1)
@@ -822,6 +719,138 @@
   <si>
     <t>3.2.2 如使用者重複登入，顯示confirm視窗提示，訊息內容請參考APF訊息表-APF_NO 6。
 若選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，清除APF登入Session，系統呼叫SSO Logout Function，使token狀態改為失效，系統導回SSO登入畫面(APF0002MM1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0001MM1』
+Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_Layout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0001MM1_Status。
+2.開啟APF0001MM1_Menu。
+3.開啟APF0001MM1_Tab。
+4.開啟APF0001MM1_Content開啟首頁頁籤。
+5.開啟APF0001MM1_Path顯示目前頁籤路徑。
+6.開啟APF0001MM1_Marquee。
+7.開啟APF0001MM1_Msg。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HomeController.Index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method。
+2.產生[account]SSOAccountState Object。
+3.判斷[account]Object是否為null，若非null則產生[Session["LoginAccount"]]Session，若為null則導回登入頁。
+4.產生[PermissionManager]APFPermissionManager Object。
+5.呼叫[PermissionManager.GetPermissionsByRoles]Method。
+6.呼叫[HomeController.HeaderLoader]Method。
+7.APF0001MM1_Menu透過Javascript呼叫[APFMenuController.GetMenuTreeByRole]Method。
+8.呼叫[LogController.LoginLog]Method。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>netId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得SSO帳號密碼正確登入後之憑證。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rids</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得[PermissionList]權限清單。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得APF0001MM1_Status之資訊。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFMenuController.GetMenuTreeByRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[MenuUIHelper.ToJSON]Method。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[APFMenuManager.GetMenuByRoles]method。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得APFMenu物件。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LogController.LoginLog</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>accountId, ip_Address, 
+browser, 
+loginDatetime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紀錄登入資訊「登入時間」、「IP」、「登入人員」、「瀏覽器版本」。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『登出』</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
+2.若選擇是
+  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
+  2.2導回SSO登入頁(APF0002MM1)。
+3.若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AccountController.Logout</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[CasAuthentication.SingleSignOut]Method。
+2.清除Session呼叫[Session.Clear]Method。
+3.呼叫[ClearAllSession]Method通知子模組清除該User之Session。
+3.導回APF首頁。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0001MM1_Menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0001MM1_Menu』</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.APF0001MM1_Tab開啟新頁籤。
+2.開啟APF0001MM1_Content並開啟該功能頁面，同時透過QueryString模式傳給子模組使用者的SID。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1311,7 +1340,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1507,10 +1536,22 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1525,6 +1566,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1534,51 +1620,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1588,14 +1629,161 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1607,153 +1795,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1762,6 +1803,33 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5048,107 +5116,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="74" t="s">
-        <v>63</v>
+      <c r="A5" s="78" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="74"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5227,8 +5295,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="75" t="s">
-        <v>106</v>
+      <c r="E1" s="79" t="s">
+        <v>104</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5250,7 +5318,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="76"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5264,7 +5332,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="76"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5317,7 +5385,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="37">
         <v>41550</v>
@@ -5457,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -5471,15 +5539,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="75" t="s">
-        <v>106</v>
+      <c r="M1" s="79" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="76"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" s="67" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="68"/>
@@ -5496,213 +5564,218 @@
       <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="92" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82" t="s">
+      <c r="A10" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="84" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="84" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="83"/>
+      <c r="A54" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A54:L54"/>
@@ -5719,11 +5792,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5800,15 +5868,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="95" t="s">
-        <v>125</v>
+      <c r="P1" s="99" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="96"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="96"/>
+      <c r="P3" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5856,10 +5924,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5888,8 +5956,8 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="75" t="s">
-        <v>106</v>
+      <c r="K1" s="79" t="s">
+        <v>104</v>
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -5909,7 +5977,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="76"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="21"/>
@@ -5922,7 +5990,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="76"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="21"/>
@@ -5937,94 +6005,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="152"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="63"/>
@@ -6339,216 +6407,216 @@
       <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="88"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
+      <c r="A39" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="82"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="153" t="s">
+      <c r="A41" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="82"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="140" t="s">
+      <c r="A42" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="88"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="116"/>
+      <c r="A43" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="136"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="109"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="124"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="136"/>
+      <c r="A45" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="104"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="137" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="139"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="107"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="70">
         <v>1</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="119"/>
+        <v>110</v>
+      </c>
+      <c r="C47" s="137" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="139"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="56">
         <v>2</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="124"/>
+        <v>110</v>
+      </c>
+      <c r="C48" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="144"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="56">
         <v>3</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="122" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="124"/>
+        <v>112</v>
+      </c>
+      <c r="C49" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="144"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="114"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="121"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="141"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="109"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="124"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6563,374 +6631,501 @@
       <c r="D52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="105" t="s">
+      <c r="E52" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
     <row r="53" spans="1:12" s="53" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A53" s="100">
+      <c r="A53" s="148">
         <v>1</v>
       </c>
-      <c r="B53" s="111" t="s">
-        <v>140</v>
+      <c r="B53" s="146" t="s">
+        <v>145</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
+      <c r="E53" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
     </row>
-    <row r="54" spans="1:12" s="53" customFormat="1" ht="193.5" customHeight="1">
-      <c r="A54" s="113"/>
-      <c r="B54" s="112"/>
+    <row r="54" spans="1:12" s="53" customFormat="1" ht="233.25" customHeight="1">
+      <c r="A54" s="149"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="54" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
+      <c r="E54" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" s="53" customFormat="1" ht="49.5">
-      <c r="A55" s="113"/>
-      <c r="B55" s="112"/>
+      <c r="A55" s="149"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="54" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
+        <v>151</v>
+      </c>
+      <c r="E55" s="145" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A56" s="113"/>
-      <c r="B56" s="112"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="54" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
+        <v>153</v>
+      </c>
+      <c r="E56" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="90"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:12" s="53" customFormat="1">
-      <c r="A57" s="113"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="147"/>
       <c r="C57" s="54" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
+        <v>140</v>
+      </c>
+      <c r="E57" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A58" s="113"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D58" s="55"/>
-      <c r="E58" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="99"/>
+      <c r="E58" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="151"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
     </row>
     <row r="59" spans="1:12" s="53" customFormat="1">
-      <c r="A59" s="113"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="149"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="54" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="99"/>
+        <v>158</v>
+      </c>
+      <c r="E59" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="151"/>
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
     </row>
     <row r="60" spans="1:12" s="53" customFormat="1">
-      <c r="A60" s="113"/>
-      <c r="B60" s="112"/>
+      <c r="A60" s="149"/>
+      <c r="B60" s="147"/>
       <c r="C60" s="54" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="99"/>
+        <v>153</v>
+      </c>
+      <c r="E60" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="150"/>
+      <c r="J60" s="151"/>
       <c r="K60" s="47"/>
       <c r="L60" s="47"/>
     </row>
-    <row r="61" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="104"/>
+    <row r="61" spans="1:12" s="53" customFormat="1" ht="66">
+      <c r="A61" s="154"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
+      <c r="I61" s="150"/>
+      <c r="J61" s="151"/>
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A62" s="100">
+    <row r="62" spans="1:12" s="53" customFormat="1">
+      <c r="A62" s="166"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+    </row>
+    <row r="63" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="157"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+    </row>
+    <row r="64" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
+      <c r="A64" s="148">
         <v>1</v>
       </c>
-      <c r="B62" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="72" t="s">
+      <c r="B64" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="99"/>
-    </row>
-    <row r="63" spans="1:12" s="47" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A63" s="101"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="99"/>
-    </row>
-    <row r="64" spans="1:12" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="143" t="s">
+      <c r="D64" s="75"/>
+      <c r="E64" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" s="150"/>
+      <c r="G64" s="150"/>
+      <c r="H64" s="150"/>
+      <c r="I64" s="150"/>
+      <c r="J64" s="151"/>
+    </row>
+    <row r="65" spans="1:10" s="47" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A65" s="154"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="75"/>
+      <c r="E65" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="150"/>
+      <c r="G65" s="150"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="151"/>
+    </row>
+    <row r="66" spans="1:10" s="47" customFormat="1">
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="73"/>
+    </row>
+    <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="157"/>
+    </row>
+    <row r="68" spans="1:10" s="49" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A68" s="74">
+        <v>1</v>
+      </c>
+      <c r="B68" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="75"/>
+      <c r="E68" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="150"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="150"/>
+      <c r="I68" s="150"/>
+      <c r="J68" s="151"/>
+    </row>
+    <row r="69" spans="1:10" s="49" customFormat="1">
+      <c r="A69" s="162"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="73"/>
+    </row>
+    <row r="70" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="145"/>
-    </row>
-    <row r="65" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="57" t="s">
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="113"/>
+    </row>
+    <row r="71" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="141" t="s">
+      <c r="B71" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="142"/>
-      <c r="D65" s="97" t="s">
+      <c r="C71" s="110"/>
+      <c r="D71" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="83"/>
-    </row>
-    <row r="66" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="128"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="129"/>
-      <c r="J66" s="130"/>
-    </row>
-    <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="57"/>
-      <c r="B67" s="131"/>
-      <c r="C67" s="132"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="83"/>
-    </row>
-    <row r="68" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="57"/>
-      <c r="B68" s="131"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="83"/>
-    </row>
-    <row r="69" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="128"/>
-      <c r="B69" s="129"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="129"/>
-      <c r="I69" s="129"/>
-      <c r="J69" s="130"/>
-    </row>
-    <row r="70" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A70" s="57"/>
-      <c r="B70" s="131"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="82"/>
-      <c r="J70" s="83"/>
-    </row>
-    <row r="71" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="58" t="s">
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="82"/>
+    </row>
+    <row r="72" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="128"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="130"/>
+    </row>
+    <row r="73" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="57"/>
+      <c r="B73" s="131"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="82"/>
+    </row>
+    <row r="74" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="57"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="82"/>
+    </row>
+    <row r="75" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="128"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="130"/>
+    </row>
+    <row r="76" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A76" s="57"/>
+      <c r="B76" s="131"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="82"/>
+    </row>
+    <row r="77" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="61"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="57">
+      <c r="B77" s="59"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="61"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="57">
         <v>1</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B78" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="131"/>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="133"/>
-      <c r="J72" s="132"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="57">
+      <c r="C78" s="131"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="132"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="57">
         <v>2</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B79" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="125"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="127"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D65:J65"/>
+  <mergeCells count="51">
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="D71:J71"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A70:J70"/>
     <mergeCell ref="A6:J9"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A44:J44"/>
@@ -6940,38 +7135,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="A61:J61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7052,8 +7215,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="75" t="s">
-        <v>106</v>
+      <c r="K1" s="79" t="s">
+        <v>104</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -7079,7 +7242,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="76"/>
+      <c r="K2" s="80"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -7097,7 +7260,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="76"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -7141,18 +7304,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="161"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -7171,7 +7334,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -7183,10 +7346,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -7219,18 +7382,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="155" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
+      <c r="A10" s="159" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -7240,10 +7403,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -7255,10 +7418,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -7269,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
@@ -7278,7 +7441,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="20"/>
     </row>
@@ -7287,22 +7450,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J13" s="20"/>
     </row>
@@ -7311,22 +7474,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -7343,18 +7506,18 @@
       <c r="J15" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="155" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157"/>
+      <c r="A17" s="159" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="161"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
@@ -7364,10 +7527,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>21</v>
@@ -7379,10 +7542,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>0</v>
@@ -7393,26 +7556,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -7421,26 +7584,26 @@
         <v>2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="22"/>
     </row>
@@ -7449,29 +7612,29 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7479,26 +7642,26 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="66"/>
     </row>
@@ -7507,23 +7670,23 @@
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7539,18 +7702,18 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="154" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
+      <c r="A25" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
@@ -7560,10 +7723,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -7575,10 +7738,10 @@
         <v>15</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>0</v>
@@ -7589,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="20"/>
@@ -7598,7 +7761,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -7659,18 +7822,18 @@
       <c r="J31" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
+      <c r="A33" s="158" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
@@ -7680,10 +7843,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>21</v>
@@ -7695,10 +7858,10 @@
         <v>15</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>0</v>
@@ -7709,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="20"/>
@@ -7718,25 +7881,25 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="154" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
+      <c r="A38" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
@@ -7746,10 +7909,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>21</v>
@@ -7761,10 +7924,10 @@
         <v>15</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>0</v>
@@ -7775,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="20"/>
@@ -7784,25 +7947,25 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="A42" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
@@ -7812,10 +7975,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>21</v>
@@ -7827,28 +7990,28 @@
         <v>15</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
-      <c r="J45" s="154"/>
+      <c r="A45" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="158"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">
@@ -7858,10 +8021,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
@@ -7873,10 +8036,10 @@
         <v>15</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>0</v>
@@ -7887,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="20"/>
@@ -7896,7 +8059,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J47" s="32"/>
     </row>
@@ -7905,7 +8068,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="20"/>
@@ -7914,7 +8077,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J48" s="32"/>
     </row>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -822,14 +822,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
-2.若選擇是
-  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
-  2.2導回SSO登入頁(APF0002MM1)。
-3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AccountController.Logout</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -851,6 +843,14 @@
   <si>
     <t>1.APF0001MM1_Tab開啟新頁籤。
 2.開啟APF0001MM1_Content並開啟該功能頁面，同時透過QueryString模式傳給子模組使用者的SID。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
+2.若選擇是
+  2.1清除APF Session、呼叫SSO Logout Function(AccountController.Logout)，使SSO token狀態改為失效。
+  2.2導回SSO登入頁(APF0002MM1)。
+3.若選擇否，則不做任何動作。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1554,6 +1554,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,12 +1590,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,21 +1629,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1611,24 +1644,126 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1687,114 +1822,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,33 +1830,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5116,12 +5116,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -5164,7 +5164,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="86" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="6" t="s">
         <v>113</v>
       </c>
@@ -5186,37 +5186,37 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="78"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="78"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="78"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="78"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="78"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="78"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5295,7 +5295,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="87" t="s">
         <v>104</v>
       </c>
       <c r="F1" s="13"/>
@@ -5318,7 +5318,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="80"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5332,7 +5332,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="80"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5539,15 +5539,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="87" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="80"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="80"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="67" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="68"/>
@@ -5564,218 +5564,213 @@
       <c r="L4" s="68"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="98"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="93" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="98"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="81" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="81" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="81" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="82"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A54:L54"/>
@@ -5792,6 +5787,11 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5868,15 +5868,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="107" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="100"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="100"/>
+      <c r="P3" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5926,8 +5926,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5956,7 +5956,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="87" t="s">
         <v>104</v>
       </c>
       <c r="L1" s="45"/>
@@ -5977,7 +5977,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="80"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="21"/>
@@ -5990,7 +5990,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="80"/>
+      <c r="K3" s="88"/>
     </row>
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="21"/>
@@ -6005,94 +6005,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="117"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="121"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="63"/>
@@ -6407,118 +6407,118 @@
       <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="88"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="98"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="95"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="88"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="136"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="129"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="124"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="125"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="104"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="149"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="56" t="s">
@@ -6527,16 +6527,16 @@
       <c r="B46" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="107"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="152"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="70">
@@ -6545,16 +6545,16 @@
       <c r="B47" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="139"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="132"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="56">
@@ -6563,16 +6563,16 @@
       <c r="B48" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="142" t="s">
+      <c r="C48" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="144"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="137"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="56">
@@ -6581,42 +6581,42 @@
       <c r="B49" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="142" t="s">
+      <c r="C49" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="143"/>
-      <c r="J49" s="144"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="137"/>
     </row>
     <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="134"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="141"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="125"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6631,200 +6631,200 @@
       <c r="D52" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="152" t="s">
+      <c r="E52" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
     <row r="53" spans="1:12" s="53" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A53" s="148">
+      <c r="A53" s="109">
         <v>1</v>
       </c>
-      <c r="B53" s="146" t="s">
+      <c r="B53" s="112" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="54" t="s">
         <v>146</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="145" t="s">
+      <c r="E53" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
     </row>
     <row r="54" spans="1:12" s="53" customFormat="1" ht="233.25" customHeight="1">
-      <c r="A54" s="149"/>
-      <c r="B54" s="147"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="54" t="s">
         <v>148</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="145" t="s">
+      <c r="E54" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" s="53" customFormat="1" ht="49.5">
-      <c r="A55" s="149"/>
-      <c r="B55" s="147"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="54" t="s">
         <v>150</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="145" t="s">
+      <c r="E55" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A56" s="149"/>
-      <c r="B56" s="147"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="54" t="s">
         <v>138</v>
       </c>
       <c r="D56" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="145" t="s">
+      <c r="E56" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:12" s="53" customFormat="1">
-      <c r="A57" s="149"/>
-      <c r="B57" s="147"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="54" t="s">
         <v>139</v>
       </c>
       <c r="D57" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="145" t="s">
+      <c r="E57" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A58" s="149"/>
-      <c r="B58" s="147"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="54" t="s">
         <v>156</v>
       </c>
       <c r="D58" s="55"/>
-      <c r="E58" s="101" t="s">
+      <c r="E58" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="151"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="117"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
     </row>
     <row r="59" spans="1:12" s="53" customFormat="1">
-      <c r="A59" s="149"/>
-      <c r="B59" s="147"/>
+      <c r="A59" s="110"/>
+      <c r="B59" s="113"/>
       <c r="C59" s="54" t="s">
         <v>141</v>
       </c>
       <c r="D59" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="101" t="s">
+      <c r="E59" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="151"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="117"/>
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
     </row>
     <row r="60" spans="1:12" s="53" customFormat="1">
-      <c r="A60" s="149"/>
-      <c r="B60" s="147"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="113"/>
       <c r="C60" s="54" t="s">
         <v>142</v>
       </c>
       <c r="D60" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="E60" s="101" t="s">
+      <c r="E60" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="151"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="117"/>
       <c r="K60" s="47"/>
       <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:12" s="53" customFormat="1" ht="66">
-      <c r="A61" s="154"/>
-      <c r="B61" s="170"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="54" t="s">
         <v>161</v>
       </c>
       <c r="D61" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="E61" s="101" t="s">
+      <c r="E61" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="151"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="117"/>
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
     </row>
     <row r="62" spans="1:12" s="53" customFormat="1">
-      <c r="A62" s="166"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="169"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
       <c r="E62" s="72"/>
       <c r="F62" s="72"/>
       <c r="G62" s="72"/>
@@ -6835,60 +6835,60 @@
       <c r="L62" s="47"/>
     </row>
     <row r="63" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="157"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="120"/>
       <c r="K63" s="47"/>
       <c r="L63" s="47"/>
     </row>
     <row r="64" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A64" s="148">
+      <c r="A64" s="109">
         <v>1</v>
       </c>
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="109" t="s">
         <v>165</v>
       </c>
       <c r="C64" s="71" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="75"/>
-      <c r="E64" s="101" t="s">
+      <c r="E64" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="117"/>
+    </row>
+    <row r="65" spans="1:10" s="47" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="151"/>
-    </row>
-    <row r="65" spans="1:10" s="47" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A65" s="154"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="71" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="151"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="117"/>
     </row>
     <row r="66" spans="1:10" s="47" customFormat="1">
-      <c r="A66" s="164"/>
-      <c r="B66" s="165"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
       <c r="C66" s="76"/>
       <c r="D66" s="72"/>
       <c r="E66" s="72"/>
@@ -6899,42 +6899,42 @@
       <c r="J66" s="73"/>
     </row>
     <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="156"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="157"/>
+      <c r="A67" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" s="49" customFormat="1" ht="97.5" customHeight="1">
       <c r="A68" s="74">
         <v>1</v>
       </c>
       <c r="B68" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="71" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="75"/>
-      <c r="E68" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="150"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="150"/>
-      <c r="J68" s="151"/>
+      <c r="E68" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="117"/>
     </row>
     <row r="69" spans="1:10" s="49" customFormat="1">
-      <c r="A69" s="162"/>
-      <c r="B69" s="163"/>
+      <c r="A69" s="77"/>
+      <c r="B69" s="78"/>
       <c r="C69" s="76"/>
       <c r="D69" s="72"/>
       <c r="E69" s="72"/>
@@ -6945,96 +6945,96 @@
       <c r="J69" s="73"/>
     </row>
     <row r="70" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="111" t="s">
+      <c r="A70" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="112"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="112"/>
-      <c r="G70" s="112"/>
-      <c r="H70" s="112"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="113"/>
+      <c r="B70" s="157"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="157"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="109" t="s">
+      <c r="B71" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="110"/>
-      <c r="D71" s="101" t="s">
+      <c r="C71" s="155"/>
+      <c r="D71" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="82"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="95"/>
     </row>
     <row r="72" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="128"/>
-      <c r="B72" s="129"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="129"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="129"/>
-      <c r="J72" s="130"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="143"/>
     </row>
     <row r="73" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="57"/>
-      <c r="B73" s="131"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="82"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="95"/>
     </row>
     <row r="74" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="57"/>
-      <c r="B74" s="131"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="82"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="95"/>
     </row>
     <row r="75" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="128"/>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="129"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="129"/>
-      <c r="J75" s="130"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="143"/>
     </row>
     <row r="76" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="57"/>
-      <c r="B76" s="131"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="82"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="95"/>
     </row>
     <row r="77" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="58" t="s">
@@ -7057,14 +7057,14 @@
       <c r="B78" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="131"/>
-      <c r="D78" s="133"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="133"/>
-      <c r="G78" s="133"/>
-      <c r="H78" s="133"/>
-      <c r="I78" s="133"/>
-      <c r="J78" s="132"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="146"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="146"/>
+      <c r="H78" s="146"/>
+      <c r="I78" s="146"/>
+      <c r="J78" s="145"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="57">
@@ -7073,52 +7073,17 @@
       <c r="B79" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="125"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="127"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="139"/>
+      <c r="F79" s="139"/>
+      <c r="G79" s="139"/>
+      <c r="H79" s="139"/>
+      <c r="I79" s="139"/>
+      <c r="J79" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -7135,6 +7100,41 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E65:J65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7215,7 +7215,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="87" t="s">
         <v>104</v>
       </c>
       <c r="L1" s="13"/>
@@ -7242,7 +7242,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="80"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -7260,7 +7260,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="80"/>
+      <c r="K3" s="88"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -7304,18 +7304,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -7382,18 +7382,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -7506,18 +7506,18 @@
       <c r="J15" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="161"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
@@ -7702,18 +7702,18 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
@@ -7822,18 +7822,18 @@
       <c r="J31" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
@@ -7888,18 +7888,18 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="158" t="s">
+      <c r="A38" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
@@ -7954,18 +7954,18 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
@@ -8000,18 +8000,18 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="167"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0001MM1!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0001MM1!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="174">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -208,10 +208,6 @@
   </si>
   <si>
     <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -696,15 +692,6 @@
     <t>HomeController.HeaderLoader</t>
   </si>
   <si>
-    <t>AccountId</t>
-  </si>
-  <si>
-    <t>MenuUIHelper.ToJSON</t>
-  </si>
-  <si>
-    <t>APFMenuManager.GetMenuByRoles</t>
-  </si>
-  <si>
     <t>1.前畫面:SSO登入頁(APF0002MM1)
 1.1 SESSION內容:
   1.1.1 Session1:使用者登入資訊，包含使用者識別值(Sid)、員工編號、員工姓名、單位代號、單位名稱、權限職稱代號、權限職稱名稱、所有隸屬角色識別值(預設角色、職稱角色、自訂角色)、密碼變更狀態，作為APF0001MM1_Status來源及系統參數使用。
@@ -717,11 +704,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3.2.2 如使用者重複登入，顯示confirm視窗提示，訊息內容請參考APF訊息表-APF_NO 6。
-若選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，清除APF登入Session，系統呼叫SSO Logout Function，使token狀態改為失效，系統導回SSO登入畫面(APF0002MM1)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>『APF0001MM1』
 Form</t>
     <phoneticPr fontId="2"/>
@@ -745,17 +727,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.呼叫[CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method。
-2.產生[account]SSOAccountState Object。
-3.判斷[account]Object是否為null，若非null則產生[Session["LoginAccount"]]Session，若為null則導回登入頁。
-4.產生[PermissionManager]APFPermissionManager Object。
-5.呼叫[PermissionManager.GetPermissionsByRoles]Method。
-6.呼叫[HomeController.HeaderLoader]Method。
-7.APF0001MM1_Menu透過Javascript呼叫[APFMenuController.GetMenuTreeByRole]Method。
-8.呼叫[LogController.LoginLog]Method。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -781,22 +752,6 @@
   </si>
   <si>
     <t>APFMenuController.GetMenuTreeByRole</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[MenuUIHelper.ToJSON]Method。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[APFMenuManager.GetMenuByRoles]method。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得APFMenu物件。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -826,13 +781,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.呼叫[CasAuthentication.SingleSignOut]Method。
-2.清除Session呼叫[Session.Clear]Method。
-3.呼叫[ClearAllSession]Method通知子模組清除該User之Session。
-3.導回APF首頁。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0001MM1_Menu</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -846,7 +794,86 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
+    <t>1.呼叫[CasAuthentication.ServiceTicketManager.GetUserServiceTickets]Method。
+2.產生[account]SSOAccountState Object。
+3.判斷[account]Object是否為null
+3.1.若非null則呼叫 CMD 模組 API 取得該使用者職稱角色並取得職稱角色相對應於 APF 角色 Table 中的角色 ID 並轉成集合且附加至 account.RoleIds 中並產生[Session["LoginAccount"]]Session，同時將 Session ID 指定給字串變數 sessionID
+3.2.若為null則導回登入頁。
+4.呼叫[Utils.LoginHelper.DuplicateLoginCheck]Method 檢查該使用者是否重複登入，若重複登入則跳出是否踢掉上一次登入的確認視窗
+4.1.使用者若按是則呼叫[Utils.LoginHelper.DuplicateLoginClear]Method 並傳入 account.AccountId 及 3.所產生之 sessionID 以清除上一次登入之資料
+4.2.使用者若是按否則將使用者登出。
+5.產生[PermissionManager]APFPermissionManager Object。
+6.呼叫[PermissionManager.GetPermissionsByRoles]Method並傳入account.RoleIds並將結果轉為List&lt;Permission&gt;。
+7.將5.所產生之List&lt;Permission&gt;指定給[Session["Permission"]]Session。
+8.呼叫[HomeController.HeaderLoader]Method並指定給ViewData以執行APF0001MM1_Status資料綁定。
+9.APF0001MM1_Menu透過Javascript呼叫[APFMenuController.GetMenuTreeByRole]Method。
+10.呼叫[LogController.LoginLog]Method以紀錄使用者登入資訊。
+11.呼叫[AccountController.IsPasswordExpired]Method並傳入使用者帳號，以檢查使用者是否為初次登入或超過期限需變更密碼。
+11.1. 若需變更密碼則導頁至/Account/ChangePassword 強制變更密碼
+12.呼叫器[HomeController.GetAllSessionTimeout]Method取得所有模組的SessionTimeout資訊以供Tab閃爍機制的Javascript使用(請參考RA006_APF0504)。
+13.使用 Try Catch 並將所截取之 Exception 呼叫 [ErrorLogger.Write]Method 進行錯誤紀錄。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Utils.LoginHelper.DuplicateLoginCheck</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>accountID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認使用者是否重複登入。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Utils.LoginHelper.DuplicateLoginClear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>accountID,
+newSessionId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重複登入之使用者。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.判斷[Session["LoginAccount"]]Session是否為null。
+2.將[Session["LoginAccount"]]Session轉為[account]SSOAccountState Object。
+3.將account.RoleIds傳入[APFMenuManager.GetMenuByRoles]Method中以回傳[menu]APFMenu Object。
+4.將[menu]APFMenu Object傳入[MenuUIHelper.ToJSON]Method中以回傳產生序列化選單物件。
+5.呼叫[MenuUIHelper.ToJSON]Method。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[CasAuthentication.SingleSignOut]Method。
+2.清除Session呼叫[Session.Clear]Method。
+3.呼叫[ClearAllSession]Method通知子模組清除該User之Ses;sion。
+4.導回APF首頁。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>按視窗關閉</t>
+  </si>
+  <si>
+    <t>1.呼叫[CasAuthentication.SingleSignOut]Method。
+2.清除Session呼叫[Session.Clear]Method。
+3.呼叫[ClearAllSession]Method通知子模組清除該User之Session。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.2.2 如使用者重複登入，顯示confirm視窗提示，訊息內容請參考APF訊息表-APF_NO 01006。
+若選擇是，系統清除已登入Session資訊，原有執行作業將強制中斷；若選擇否，清除APF登入Session，系統呼叫SSO Logout Function，使token狀態改為失效，系統導回SSO登入畫面(APF0002MM1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 01007。
 2.若選擇是
   2.1清除APF Session、呼叫SSO Logout Function(AccountController.Logout)，使SSO token狀態改為失效。
   2.2導回SSO登入頁(APF0002MM1)。
@@ -1340,7 +1367,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1503,16 +1530,100 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1521,23 +1632,53 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1545,120 +1686,36 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1668,42 +1725,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1721,12 +1742,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2933,8 +2948,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>79</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5116,107 +5131,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="A1" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="86" t="s">
-        <v>62</v>
+      <c r="A5" s="84" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="86"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="86"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="86"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -5295,8 +5310,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="87" t="s">
-        <v>104</v>
+      <c r="E1" s="85" t="s">
+        <v>103</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -5318,7 +5333,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="88"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5332,7 +5347,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="88"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5360,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>18</v>
@@ -5382,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="37">
         <v>41550</v>
@@ -5525,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -5539,235 +5554,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="87" t="s">
-        <v>104</v>
+      <c r="M1" s="85" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="88"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="88"/>
-    </row>
-    <row r="4" spans="1:13" s="67" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="M3" s="86"/>
+    </row>
+    <row r="4" spans="1:13" s="65" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+    </row>
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+    </row>
+    <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="91"/>
-    </row>
-    <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="98"/>
-    </row>
-    <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="92" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94" t="s">
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+    </row>
+    <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+    </row>
+    <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
-    </row>
-    <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="98"/>
-    </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94" t="s">
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+    </row>
+    <row r="12" spans="1:13" s="49" customFormat="1">
+      <c r="A12" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
-    </row>
-    <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="98"/>
-    </row>
-    <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="92" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+    </row>
+    <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+    </row>
+    <row r="14" spans="1:13" s="49" customFormat="1">
+      <c r="A14" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-    </row>
-    <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="98"/>
-    </row>
-    <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="92" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="A15" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="95"/>
+      <c r="A54" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5842,8 +5857,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5868,15 +5883,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="107" t="s">
-        <v>123</v>
+      <c r="P1" s="105" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="108"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="108"/>
+      <c r="P3" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5927,7 +5942,7 @@
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:J65"/>
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5956,8 +5971,8 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="87" t="s">
-        <v>104</v>
+      <c r="K1" s="85" t="s">
+        <v>103</v>
       </c>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -5977,7 +5992,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="88"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:17" s="46" customFormat="1">
       <c r="A3" s="21"/>
@@ -5990,7 +6005,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="88"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:17" s="46" customFormat="1">
       <c r="A4" s="21"/>
@@ -6005,1087 +6020,1083 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
+      <c r="A10" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="166"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:17" s="49" customFormat="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:17" s="49" customFormat="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:17" s="49" customFormat="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:17" s="49" customFormat="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" s="49" customFormat="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" s="49" customFormat="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" s="49" customFormat="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" s="49" customFormat="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" s="49" customFormat="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="1:10" s="49" customFormat="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" s="49" customFormat="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" s="49" customFormat="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" s="49" customFormat="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" s="49" customFormat="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="1:10" s="49" customFormat="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" s="49" customFormat="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" s="49" customFormat="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:10" s="49" customFormat="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="1:10" s="49" customFormat="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="1:10" s="49" customFormat="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" s="49" customFormat="1">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="65"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" s="49" customFormat="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="65"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" s="49" customFormat="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36" spans="1:10" s="49" customFormat="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10" s="49" customFormat="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
+      <c r="A38" s="149" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="96"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="95"/>
+      <c r="A39" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="95"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="93"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="153" t="s">
+      <c r="A42" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="96"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
+      <c r="A43" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="127"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="125"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="119"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="147" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="A45" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="C46" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="150" t="s">
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="148"/>
+    </row>
+    <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
+      <c r="A47" s="68">
+        <v>1</v>
+      </c>
+      <c r="B47" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="152"/>
-    </row>
-    <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
-      <c r="A47" s="70">
-        <v>1</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="132"/>
+      <c r="C47" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="130"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="56">
         <v>2</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="137"/>
+        <v>109</v>
+      </c>
+      <c r="C48" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="56">
         <v>3</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="135" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="137"/>
-    </row>
-    <row r="50" spans="1:12" s="47" customFormat="1">
-      <c r="A50" s="127"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
+        <v>111</v>
+      </c>
+      <c r="C49" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="125"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="119"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="C52" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="D52" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="E52" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="122"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
     <row r="53" spans="1:12" s="53" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A53" s="109">
+      <c r="A53" s="107">
         <v>1</v>
       </c>
-      <c r="B53" s="112" t="s">
-        <v>145</v>
+      <c r="B53" s="122" t="s">
+        <v>140</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
+      <c r="E53" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
     </row>
-    <row r="54" spans="1:12" s="53" customFormat="1" ht="233.25" customHeight="1">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
+    <row r="54" spans="1:12" s="53" customFormat="1" ht="395.25" customHeight="1">
+      <c r="A54" s="121"/>
+      <c r="B54" s="123"/>
       <c r="C54" s="54" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="126" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
+      <c r="E54" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" s="53" customFormat="1" ht="49.5">
-      <c r="A55" s="110"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="54" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
+        <v>145</v>
+      </c>
+      <c r="E55" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A56" s="110"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="123"/>
       <c r="C56" s="54" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
+        <v>162</v>
+      </c>
+      <c r="E56" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="111"/>
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
     </row>
-    <row r="57" spans="1:12" s="53" customFormat="1">
-      <c r="A57" s="110"/>
-      <c r="B57" s="113"/>
+    <row r="57" spans="1:12" s="53" customFormat="1" ht="33">
+      <c r="A57" s="121"/>
+      <c r="B57" s="123"/>
       <c r="C57" s="54" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
+        <v>165</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="111"/>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A58" s="110"/>
-      <c r="B58" s="113"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="123"/>
       <c r="C58" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="115" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="117"/>
+        <v>137</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
     </row>
     <row r="59" spans="1:12" s="53" customFormat="1">
-      <c r="A59" s="110"/>
-      <c r="B59" s="113"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="117"/>
+        <v>162</v>
+      </c>
+      <c r="E59" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
     </row>
-    <row r="60" spans="1:12" s="53" customFormat="1">
-      <c r="A60" s="110"/>
-      <c r="B60" s="113"/>
+    <row r="60" spans="1:12" s="53" customFormat="1" ht="141" customHeight="1">
+      <c r="A60" s="121"/>
+      <c r="B60" s="123"/>
       <c r="C60" s="54" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="115" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="117"/>
+        <v>167</v>
+      </c>
+      <c r="E60" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="111"/>
       <c r="K60" s="47"/>
       <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:12" s="53" customFormat="1" ht="66">
-      <c r="A61" s="111"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="124"/>
       <c r="C61" s="54" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="117"/>
+        <v>152</v>
+      </c>
+      <c r="E61" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="111"/>
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
     </row>
     <row r="62" spans="1:12" s="53" customFormat="1">
-      <c r="A62" s="81"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="73"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="47"/>
       <c r="L62" s="47"/>
     </row>
     <row r="63" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="120"/>
+      <c r="A63" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="114"/>
       <c r="K63" s="47"/>
       <c r="L63" s="47"/>
     </row>
     <row r="64" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A64" s="109">
+      <c r="A64" s="107">
         <v>1</v>
       </c>
-      <c r="B64" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="71" t="s">
+      <c r="B64" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="75"/>
-      <c r="E64" s="115" t="s">
+      <c r="D64" s="79"/>
+      <c r="E64" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="110"/>
+      <c r="G64" s="110"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="111"/>
+    </row>
+    <row r="65" spans="1:10" s="47" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="79"/>
+      <c r="E65" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="111"/>
+    </row>
+    <row r="66" spans="1:10" s="47" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A66" s="56">
+        <v>2</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="79"/>
+      <c r="E66" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="117"/>
-    </row>
-    <row r="65" spans="1:10" s="47" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="115" t="s">
-        <v>167</v>
-      </c>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="117"/>
-    </row>
-    <row r="66" spans="1:10" s="47" customFormat="1">
-      <c r="A66" s="79"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="73"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="111"/>
     </row>
     <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="120"/>
+      <c r="A67" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="113"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="114"/>
     </row>
     <row r="68" spans="1:10" s="49" customFormat="1" ht="97.5" customHeight="1">
-      <c r="A68" s="74">
+      <c r="A68" s="76">
         <v>1</v>
       </c>
-      <c r="B68" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="71" t="s">
+      <c r="B68" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="75"/>
-      <c r="E68" s="115" t="s">
-        <v>170</v>
-      </c>
-      <c r="F68" s="116"/>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="117"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="111"/>
     </row>
     <row r="69" spans="1:10" s="49" customFormat="1">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="73"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="78"/>
     </row>
     <row r="70" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="156" t="s">
+      <c r="A70" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="158"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="154"/>
     </row>
     <row r="71" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="154" t="s">
+      <c r="B71" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="155"/>
-      <c r="D71" s="115" t="s">
+      <c r="C71" s="151"/>
+      <c r="D71" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="95"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="93"/>
     </row>
     <row r="72" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="141"/>
-      <c r="B72" s="142"/>
-      <c r="C72" s="142"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="142"/>
-      <c r="H72" s="142"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="143"/>
+      <c r="A72" s="137"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138"/>
+      <c r="F72" s="138"/>
+      <c r="G72" s="138"/>
+      <c r="H72" s="138"/>
+      <c r="I72" s="138"/>
+      <c r="J72" s="139"/>
     </row>
     <row r="73" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="57"/>
-      <c r="B73" s="144"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="95"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="93"/>
     </row>
     <row r="74" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="57"/>
-      <c r="B74" s="144"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="115"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="95"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="109"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
     </row>
     <row r="75" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="141"/>
-      <c r="B75" s="142"/>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="143"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="138"/>
+      <c r="G75" s="138"/>
+      <c r="H75" s="138"/>
+      <c r="I75" s="138"/>
+      <c r="J75" s="139"/>
     </row>
     <row r="76" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="57"/>
-      <c r="B76" s="144"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="95"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="93"/>
     </row>
     <row r="77" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="58" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="61"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="82"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="57">
         <v>1</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="146"/>
-      <c r="H78" s="146"/>
-      <c r="I78" s="146"/>
-      <c r="J78" s="145"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="141"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="57">
         <v>2</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="138"/>
-      <c r="D79" s="139"/>
-      <c r="E79" s="139"/>
-      <c r="F79" s="139"/>
-      <c r="G79" s="139"/>
-      <c r="H79" s="139"/>
-      <c r="I79" s="139"/>
-      <c r="J79" s="140"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="135"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
@@ -7100,6 +7111,10 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="A72:J72"/>
     <mergeCell ref="B73:C73"/>
@@ -7110,11 +7125,8 @@
     <mergeCell ref="A75:J75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="D76:J76"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="A45:J45"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="E68:J68"/>
     <mergeCell ref="E52:J52"/>
@@ -7135,6 +7147,7 @@
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="E64:J64"/>
     <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E66:J66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7215,8 +7228,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="87" t="s">
-        <v>104</v>
+      <c r="K1" s="85" t="s">
+        <v>103</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -7242,7 +7255,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="88"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -7260,7 +7273,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="88"/>
+      <c r="K3" s="86"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -7304,18 +7317,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="168" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="A6" s="164" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -7334,7 +7347,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>21</v>
@@ -7346,10 +7359,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -7382,18 +7395,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
+      <c r="A10" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="166"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -7403,10 +7416,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>21</v>
@@ -7418,10 +7431,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -7432,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
@@ -7441,7 +7454,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="20"/>
     </row>
@@ -7450,22 +7463,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="20"/>
     </row>
@@ -7474,22 +7487,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -7506,18 +7519,18 @@
       <c r="J15" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="170"/>
+      <c r="A17" s="164" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
@@ -7527,10 +7540,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>21</v>
@@ -7542,10 +7555,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>0</v>
@@ -7556,26 +7569,26 @@
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>80</v>
+        <v>128</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>79</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" s="22"/>
     </row>
@@ -7584,26 +7597,26 @@
         <v>2</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="22"/>
     </row>
@@ -7612,29 +7625,29 @@
         <v>3</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>117</v>
-      </c>
       <c r="G21" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>119</v>
+        <v>69</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -7642,51 +7655,51 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="66"/>
+        <v>69</v>
+      </c>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="17">
         <v>5</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -7702,18 +7715,18 @@
       <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
+      <c r="A25" s="163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="28" t="s">
@@ -7723,10 +7736,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
@@ -7738,10 +7751,10 @@
         <v>15</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>0</v>
@@ -7752,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="20"/>
@@ -7761,7 +7774,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J27" s="32"/>
     </row>
@@ -7822,18 +7835,18 @@
       <c r="J31" s="23"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="167" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
+      <c r="A33" s="163" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="28" t="s">
@@ -7843,10 +7856,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>21</v>
@@ -7858,10 +7871,10 @@
         <v>15</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>0</v>
@@ -7872,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="20"/>
@@ -7881,25 +7894,25 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="167" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
+      <c r="A38" s="163" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
@@ -7909,10 +7922,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>21</v>
@@ -7924,10 +7937,10 @@
         <v>15</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>0</v>
@@ -7938,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="20"/>
@@ -7947,25 +7960,25 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="167" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
+      <c r="A42" s="163" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="163"/>
+      <c r="J42" s="163"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
@@ -7975,10 +7988,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>21</v>
@@ -7990,28 +8003,28 @@
         <v>15</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="167" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167"/>
+      <c r="A45" s="163" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
+      <c r="J45" s="163"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">
@@ -8021,10 +8034,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>21</v>
@@ -8036,10 +8049,10 @@
         <v>15</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>0</v>
@@ -8050,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="20"/>
@@ -8059,7 +8072,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J47" s="32"/>
     </row>
@@ -8068,7 +8081,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="20"/>
@@ -8077,7 +8090,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J48" s="32"/>
     </row>

--- a/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/RA006/RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="8475" windowHeight="4695" tabRatio="588" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="8475" windowHeight="4695" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
@@ -1611,6 +1611,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,102 +1665,171 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1724,120 +1838,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5540,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
@@ -5579,213 +5579,218 @@
       <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
     </row>
     <row r="7" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="102" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
     </row>
     <row r="8" spans="1:13" s="49" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
     </row>
     <row r="10" spans="1:13" s="49" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="94" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:13" s="49" customFormat="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:13" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="94" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
     </row>
     <row r="14" spans="1:13" s="49" customFormat="1">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="93"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A54:L54"/>
@@ -5802,11 +5807,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5941,7 +5941,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
@@ -6020,94 +6020,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="46" customFormat="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="47" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
       <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:17" s="47" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:17" s="47" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="1:17" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:17" s="49" customFormat="1">
-      <c r="A11" s="162"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="93"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:17" s="49" customFormat="1">
       <c r="A12" s="61"/>
@@ -6422,118 +6422,118 @@
       <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="149" t="s">
+      <c r="A38" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="94"/>
     </row>
     <row r="39" spans="1:10" s="49" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="93"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="88"/>
     </row>
     <row r="40" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="96"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:10" s="49" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="93"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="88"/>
     </row>
     <row r="42" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="149" t="s">
+      <c r="A42" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="96"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="47" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="125" t="s">
+      <c r="A43" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="127"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="129"/>
     </row>
     <row r="44" spans="1:10" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="119"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:10" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="143" t="s">
+      <c r="A45" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="148"/>
     </row>
     <row r="46" spans="1:10" s="47" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="56" t="s">
@@ -6542,16 +6542,16 @@
       <c r="B46" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="146" t="s">
+      <c r="C46" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="148"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="109"/>
     </row>
     <row r="47" spans="1:10" s="47" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="68">
@@ -6560,16 +6560,16 @@
       <c r="B47" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="128" t="s">
+      <c r="C47" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="130"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="132"/>
     </row>
     <row r="48" spans="1:10" s="47" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="56">
@@ -6578,16 +6578,16 @@
       <c r="B48" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="135"/>
     </row>
     <row r="49" spans="1:12" s="47" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="56">
@@ -6596,30 +6596,30 @@
       <c r="B49" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="131" t="s">
+      <c r="C49" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="135"/>
     </row>
     <row r="51" spans="1:12" s="47" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="117" t="s">
+      <c r="A51" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="119"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="126"/>
     </row>
     <row r="52" spans="1:12" s="53" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="50" t="s">
@@ -6634,194 +6634,194 @@
       <c r="D52" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
       <c r="K52" s="47"/>
       <c r="L52" s="47"/>
     </row>
     <row r="53" spans="1:12" s="53" customFormat="1" ht="122.25" customHeight="1">
-      <c r="A53" s="107">
+      <c r="A53" s="157">
         <v>1</v>
       </c>
-      <c r="B53" s="122" t="s">
+      <c r="B53" s="160" t="s">
         <v>140</v>
       </c>
       <c r="C53" s="54" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="120" t="s">
+      <c r="E53" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
     </row>
     <row r="54" spans="1:12" s="53" customFormat="1" ht="395.25" customHeight="1">
-      <c r="A54" s="121"/>
-      <c r="B54" s="123"/>
+      <c r="A54" s="158"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="54" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="55"/>
-      <c r="E54" s="120" t="s">
+      <c r="E54" s="156" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
     <row r="55" spans="1:12" s="53" customFormat="1" ht="49.5">
-      <c r="A55" s="121"/>
-      <c r="B55" s="123"/>
+      <c r="A55" s="158"/>
+      <c r="B55" s="161"/>
       <c r="C55" s="54" t="s">
         <v>144</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="120" t="s">
+      <c r="E55" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
     </row>
     <row r="56" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A56" s="121"/>
-      <c r="B56" s="123"/>
+      <c r="A56" s="158"/>
+      <c r="B56" s="161"/>
       <c r="C56" s="54" t="s">
         <v>161</v>
       </c>
       <c r="D56" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="E56" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="111"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="153"/>
       <c r="K56" s="47"/>
       <c r="L56" s="47"/>
     </row>
     <row r="57" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A57" s="121"/>
-      <c r="B57" s="123"/>
+      <c r="A57" s="158"/>
+      <c r="B57" s="161"/>
       <c r="C57" s="54" t="s">
         <v>164</v>
       </c>
       <c r="D57" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="109" t="s">
+      <c r="E57" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="111"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="153"/>
       <c r="K57" s="47"/>
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:12" s="53" customFormat="1" ht="33">
-      <c r="A58" s="121"/>
-      <c r="B58" s="123"/>
+      <c r="A58" s="158"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="54" t="s">
         <v>137</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="120" t="s">
+      <c r="E58" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="91"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
     </row>
     <row r="59" spans="1:12" s="53" customFormat="1">
-      <c r="A59" s="121"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="158"/>
+      <c r="B59" s="161"/>
       <c r="C59" s="54" t="s">
         <v>138</v>
       </c>
       <c r="D59" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="120" t="s">
+      <c r="E59" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
     </row>
     <row r="60" spans="1:12" s="53" customFormat="1" ht="141" customHeight="1">
-      <c r="A60" s="121"/>
-      <c r="B60" s="123"/>
+      <c r="A60" s="158"/>
+      <c r="B60" s="161"/>
       <c r="C60" s="54" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="109" t="s">
+      <c r="E60" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="F60" s="110"/>
-      <c r="G60" s="110"/>
-      <c r="H60" s="110"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="111"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="153"/>
       <c r="K60" s="47"/>
       <c r="L60" s="47"/>
     </row>
     <row r="61" spans="1:12" s="53" customFormat="1" ht="66">
-      <c r="A61" s="108"/>
-      <c r="B61" s="124"/>
+      <c r="A61" s="159"/>
+      <c r="B61" s="162"/>
       <c r="C61" s="54" t="s">
         <v>151</v>
       </c>
       <c r="D61" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="109" t="s">
+      <c r="E61" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="110"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="111"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="153"/>
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
     </row>
@@ -6840,56 +6840,56 @@
       <c r="L62" s="47"/>
     </row>
     <row r="63" spans="1:12" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="114"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="151"/>
       <c r="K63" s="47"/>
       <c r="L63" s="47"/>
     </row>
     <row r="64" spans="1:12" s="47" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A64" s="107">
+      <c r="A64" s="157">
         <v>1</v>
       </c>
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="157" t="s">
         <v>155</v>
       </c>
       <c r="C64" s="69" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="79"/>
-      <c r="E64" s="109" t="s">
+      <c r="E64" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="111"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="153"/>
     </row>
     <row r="65" spans="1:10" s="47" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
+      <c r="A65" s="159"/>
+      <c r="B65" s="159"/>
       <c r="C65" s="69" t="s">
         <v>156</v>
       </c>
       <c r="D65" s="79"/>
-      <c r="E65" s="109" t="s">
+      <c r="E65" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="F65" s="110"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="110"/>
-      <c r="I65" s="110"/>
-      <c r="J65" s="111"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="153"/>
     </row>
     <row r="66" spans="1:10" s="47" customFormat="1" ht="65.25" customHeight="1">
       <c r="A66" s="56">
@@ -6902,28 +6902,28 @@
         <v>170</v>
       </c>
       <c r="D66" s="79"/>
-      <c r="E66" s="110" t="s">
+      <c r="E66" s="152" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="111"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="153"/>
     </row>
     <row r="67" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="113"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="114"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
+      <c r="E67" s="150"/>
+      <c r="F67" s="150"/>
+      <c r="G67" s="150"/>
+      <c r="H67" s="150"/>
+      <c r="I67" s="150"/>
+      <c r="J67" s="151"/>
     </row>
     <row r="68" spans="1:10" s="49" customFormat="1" ht="97.5" customHeight="1">
       <c r="A68" s="76">
@@ -6936,14 +6936,14 @@
         <v>17</v>
       </c>
       <c r="D68" s="79"/>
-      <c r="E68" s="109" t="s">
+      <c r="E68" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="111"/>
+      <c r="F68" s="152"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="153"/>
     </row>
     <row r="69" spans="1:10" s="49" customFormat="1">
       <c r="A69" s="70"/>
@@ -6958,96 +6958,96 @@
       <c r="J69" s="78"/>
     </row>
     <row r="70" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="154"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="115"/>
     </row>
     <row r="71" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="150" t="s">
+      <c r="B71" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="151"/>
-      <c r="D71" s="109" t="s">
+      <c r="C71" s="112"/>
+      <c r="D71" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="93"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="88"/>
     </row>
     <row r="72" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="137"/>
-      <c r="B72" s="138"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="138"/>
-      <c r="J72" s="139"/>
+      <c r="A72" s="139"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="141"/>
     </row>
     <row r="73" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="57"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="141"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="93"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="88"/>
     </row>
     <row r="74" spans="1:10" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="57"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="141"/>
-      <c r="D74" s="109"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="143"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="88"/>
     </row>
     <row r="75" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="137"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="138"/>
-      <c r="F75" s="138"/>
-      <c r="G75" s="138"/>
-      <c r="H75" s="138"/>
-      <c r="I75" s="138"/>
-      <c r="J75" s="139"/>
+      <c r="A75" s="139"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="141"/>
     </row>
     <row r="76" spans="1:10" s="47" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="57"/>
-      <c r="B76" s="140"/>
-      <c r="C76" s="141"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="93"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="88"/>
     </row>
     <row r="77" spans="1:10" s="47" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="58" t="s">
@@ -7070,14 +7070,14 @@
       <c r="B78" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="140"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="141"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
+      <c r="F78" s="145"/>
+      <c r="G78" s="145"/>
+      <c r="H78" s="145"/>
+      <c r="I78" s="145"/>
+      <c r="J78" s="143"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="57">
@@ -7086,17 +7086,52 @@
       <c r="B79" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="134"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="137"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A5:J5"/>
@@ -7113,41 +7148,6 @@
     <mergeCell ref="A38:J38"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="E66:J66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
